--- a/Code/Results/Cases/Case_5_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_31/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,844 +409,994 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.59441534967634</v>
+        <v>22.91097603471359</v>
       </c>
       <c r="C2">
-        <v>16.10534105934495</v>
+        <v>13.10013800598121</v>
       </c>
       <c r="D2">
-        <v>3.468309751065867</v>
+        <v>5.438015783642353</v>
       </c>
       <c r="E2">
-        <v>9.136575267149762</v>
+        <v>6.248050554104936</v>
       </c>
       <c r="F2">
-        <v>40.19400422484212</v>
+        <v>38.35315186594629</v>
       </c>
       <c r="I2">
-        <v>25.80132731662459</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>7.994638183271626</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>18.72308579936557</v>
+        <v>18.59027689496017</v>
       </c>
       <c r="L2">
-        <v>12.72490545670373</v>
+        <v>6.173876123630732</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>13.55364051507596</v>
+      </c>
+      <c r="N2">
+        <v>15.36407147684755</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.1180925476338</v>
+        <v>21.50017941799851</v>
       </c>
       <c r="C3">
-        <v>14.93466840883819</v>
+        <v>12.20918397975137</v>
       </c>
       <c r="D3">
-        <v>3.521430649447869</v>
+        <v>5.516369133062848</v>
       </c>
       <c r="E3">
-        <v>8.617274244765889</v>
+        <v>6.246284901496108</v>
       </c>
       <c r="F3">
-        <v>38.18077447029167</v>
+        <v>36.83246900133621</v>
       </c>
       <c r="I3">
-        <v>24.88411349139821</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>7.699637670012249</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>17.39746510500384</v>
+        <v>17.26681600832267</v>
       </c>
       <c r="L3">
-        <v>11.80811155543308</v>
+        <v>6.101940437351725</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>13.01740530095382</v>
+      </c>
+      <c r="N3">
+        <v>15.5068779796001</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.16617306613243</v>
+        <v>20.60616810852546</v>
       </c>
       <c r="C4">
-        <v>14.18145176383517</v>
+        <v>11.63578856102649</v>
       </c>
       <c r="D4">
-        <v>3.554261121786927</v>
+        <v>5.565970411831505</v>
       </c>
       <c r="E4">
-        <v>8.292195776313434</v>
+        <v>6.245899851792266</v>
       </c>
       <c r="F4">
-        <v>36.93668570456964</v>
+        <v>35.90587613400923</v>
       </c>
       <c r="I4">
-        <v>24.3311479670917</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>7.521132225613293</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>16.54314879357809</v>
+        <v>16.53724067256369</v>
       </c>
       <c r="L4">
-        <v>11.21833579126382</v>
+        <v>6.060947750255303</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>12.68809609438861</v>
+      </c>
+      <c r="N4">
+        <v>15.59983561686513</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.76662058631024</v>
+        <v>20.23509073380917</v>
       </c>
       <c r="C5">
-        <v>13.86566812891143</v>
+        <v>11.39540206589877</v>
       </c>
       <c r="D5">
-        <v>3.567700326701295</v>
+        <v>5.586554343925656</v>
       </c>
       <c r="E5">
-        <v>8.158254666286584</v>
+        <v>6.245906928124112</v>
       </c>
       <c r="F5">
-        <v>36.42807390448436</v>
+        <v>35.53036880432816</v>
       </c>
       <c r="I5">
-        <v>24.10843156593793</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>7.449084490487519</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>16.18465789605386</v>
+        <v>16.23424881243564</v>
       </c>
       <c r="L5">
-        <v>10.97109482909852</v>
+        <v>6.045027025194144</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>12.55402962782108</v>
+      </c>
+      <c r="N5">
+        <v>15.63899263485971</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.69956651467998</v>
+        <v>20.17307354953712</v>
       </c>
       <c r="C6">
-        <v>13.81269328917104</v>
+        <v>11.35507739349645</v>
       </c>
       <c r="D6">
-        <v>3.569935749594664</v>
+        <v>5.589994607047145</v>
       </c>
       <c r="E6">
-        <v>8.135928629382484</v>
+        <v>6.24591768622424</v>
       </c>
       <c r="F6">
-        <v>36.34353340524392</v>
+        <v>35.46815182223968</v>
       </c>
       <c r="I6">
-        <v>24.07161003952082</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>7.437164154967507</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>16.12450016127195</v>
+        <v>16.18360020118899</v>
       </c>
       <c r="L6">
-        <v>10.92961962388169</v>
+        <v>6.042430331909339</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>12.53178045025306</v>
+      </c>
+      <c r="N6">
+        <v>15.645570342937</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.16083194662415</v>
+        <v>20.60119064282269</v>
       </c>
       <c r="C7">
-        <v>14.17722903192703</v>
+        <v>11.63257396699511</v>
       </c>
       <c r="D7">
-        <v>3.554442113614983</v>
+        <v>5.566246516046475</v>
       </c>
       <c r="E7">
-        <v>8.290395194285917</v>
+        <v>6.245899297930125</v>
       </c>
       <c r="F7">
-        <v>36.92983244368639</v>
+        <v>35.90080303010865</v>
       </c>
       <c r="I7">
-        <v>24.32813363223995</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>7.520157699748902</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>16.53835621669822</v>
+        <v>16.53317716069618</v>
       </c>
       <c r="L7">
-        <v>11.21502954987725</v>
+        <v>6.060729882185717</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>12.68628729576987</v>
+      </c>
+      <c r="N7">
+        <v>15.60035859743811</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.0946821291981</v>
+        <v>22.43040651135778</v>
       </c>
       <c r="C8">
-        <v>15.7087195235797</v>
+        <v>12.79834172391173</v>
       </c>
       <c r="D8">
-        <v>3.486585408960154</v>
+        <v>5.464719308576472</v>
       </c>
       <c r="E8">
-        <v>8.958859285258203</v>
+        <v>6.24728915327208</v>
       </c>
       <c r="F8">
-        <v>39.50167676100219</v>
+        <v>37.82750593259824</v>
       </c>
       <c r="I8">
-        <v>25.48297799226622</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>7.892394311129032</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>18.27426989376674</v>
+        <v>18.137078144078</v>
       </c>
       <c r="L8">
-        <v>12.41427708753593</v>
+        <v>6.148404733065293</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>13.3688386031527</v>
+      </c>
+      <c r="N8">
+        <v>15.4121844924554</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.53663918102452</v>
+        <v>25.79155629100558</v>
       </c>
       <c r="C9">
-        <v>18.44816767436687</v>
+        <v>14.8805410927659</v>
       </c>
       <c r="D9">
-        <v>3.35492733935838</v>
+        <v>5.277754068503366</v>
       </c>
       <c r="E9">
-        <v>10.26774150694843</v>
+        <v>6.256169414446963</v>
       </c>
       <c r="F9">
-        <v>44.47241937018641</v>
+        <v>41.65240340620642</v>
       </c>
       <c r="I9">
-        <v>27.82798932685933</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>8.642340186254122</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>21.36768615632008</v>
+        <v>21.25912338954664</v>
       </c>
       <c r="L9">
-        <v>14.56020132694803</v>
+        <v>6.346211774270001</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>14.70175591885081</v>
+      </c>
+      <c r="N9">
+        <v>15.08762434786623</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.86787641671815</v>
+        <v>28.30728050030315</v>
       </c>
       <c r="C10">
-        <v>20.31452715558229</v>
+        <v>16.29439110755774</v>
       </c>
       <c r="D10">
-        <v>3.258703762617891</v>
+        <v>5.148398920244648</v>
       </c>
       <c r="E10">
-        <v>11.31254143562088</v>
+        <v>6.267431367051306</v>
       </c>
       <c r="F10">
-        <v>48.07768530530625</v>
+        <v>44.48366664126338</v>
       </c>
       <c r="I10">
-        <v>29.60261939847646</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>9.205646385228986</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>23.46601257608787</v>
+        <v>23.37272471689868</v>
       </c>
       <c r="L10">
-        <v>16.02272908745263</v>
+        <v>6.508337141064836</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>15.67286259177727</v>
+      </c>
+      <c r="N10">
+        <v>14.88050420444187</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.8896144449004</v>
+        <v>29.41365338439763</v>
       </c>
       <c r="C11">
-        <v>21.13556209178092</v>
+        <v>16.91460307225551</v>
       </c>
       <c r="D11">
-        <v>3.214988814897081</v>
+        <v>5.091508874286417</v>
       </c>
       <c r="E11">
-        <v>11.77240196905469</v>
+        <v>6.273851081439956</v>
       </c>
       <c r="F11">
-        <v>49.71024249126961</v>
+        <v>45.77657652604696</v>
       </c>
       <c r="I11">
-        <v>30.42302910332073</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>9.465045855840064</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>24.38657124633156</v>
+        <v>24.29822760329339</v>
       </c>
       <c r="L11">
-        <v>16.66622439039529</v>
+        <v>6.58600015861745</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>16.14687207060738</v>
+      </c>
+      <c r="N11">
+        <v>14.79423799668481</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.27134149173756</v>
+        <v>29.82717559688359</v>
       </c>
       <c r="C12">
-        <v>21.44280657056447</v>
+        <v>17.14637147320329</v>
       </c>
       <c r="D12">
-        <v>3.1984425758032</v>
+        <v>5.070273450709673</v>
       </c>
       <c r="E12">
-        <v>11.94452182536299</v>
+        <v>6.276495523888699</v>
       </c>
       <c r="F12">
-        <v>50.32780168247818</v>
+        <v>46.26704097311949</v>
       </c>
       <c r="I12">
-        <v>30.73583865004695</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>9.563798759869091</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>24.73064692902609</v>
+        <v>24.64381062768779</v>
       </c>
       <c r="L12">
-        <v>16.90704489566901</v>
+        <v>6.615997064751395</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>16.37473959773098</v>
+      </c>
+      <c r="N12">
+        <v>14.76283147050391</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.18935345969188</v>
+        <v>29.73835282985753</v>
       </c>
       <c r="C13">
-        <v>21.37679261505901</v>
+        <v>17.09658990801288</v>
       </c>
       <c r="D13">
-        <v>3.202005736338152</v>
+        <v>5.074832692029807</v>
       </c>
       <c r="E13">
-        <v>11.9075390754947</v>
+        <v>6.275916024143492</v>
       </c>
       <c r="F13">
-        <v>50.19481966025935</v>
+        <v>46.16136836925852</v>
       </c>
       <c r="I13">
-        <v>30.66836939124593</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>9.542505782812878</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>24.65673870384084</v>
+        <v>24.5695953837438</v>
       </c>
       <c r="L13">
-        <v>16.85530207507594</v>
+        <v>6.60951011077004</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>16.32580801669475</v>
+      </c>
+      <c r="N13">
+        <v>14.76953729952196</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.92112080559018</v>
+        <v>29.44778122748876</v>
       </c>
       <c r="C14">
-        <v>21.16091045466431</v>
+        <v>16.93373147798246</v>
       </c>
       <c r="D14">
-        <v>3.213627383619638</v>
+        <v>5.089755478666931</v>
       </c>
       <c r="E14">
-        <v>11.78660160460383</v>
+        <v>6.27406419281447</v>
       </c>
       <c r="F14">
-        <v>49.76105949746996</v>
+        <v>45.81690863874186</v>
       </c>
       <c r="I14">
-        <v>30.44871950044122</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>9.473159296831966</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>24.41496686151579</v>
+        <v>24.32675503495855</v>
       </c>
       <c r="L14">
-        <v>16.68609235421898</v>
+        <v>6.588456085361378</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>16.16568395624115</v>
+      </c>
+      <c r="N14">
+        <v>14.7916281621708</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.75615807893729</v>
+        <v>29.26909914404377</v>
       </c>
       <c r="C15">
-        <v>21.02821086212973</v>
+        <v>16.83357993949749</v>
       </c>
       <c r="D15">
-        <v>3.220747015219667</v>
+        <v>5.098937094600497</v>
       </c>
       <c r="E15">
-        <v>11.71226731098521</v>
+        <v>6.27295856693693</v>
       </c>
       <c r="F15">
-        <v>49.49529930626191</v>
+        <v>45.60603668321438</v>
       </c>
       <c r="I15">
-        <v>30.31446513547774</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>9.430753448891281</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>24.26629775650648</v>
+        <v>24.17738138498303</v>
       </c>
       <c r="L15">
-        <v>16.58208341091534</v>
+        <v>6.575637233875938</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>16.06717884764075</v>
+      </c>
+      <c r="N15">
+        <v>14.80532740868388</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.80035572660458</v>
+        <v>28.23419862532254</v>
       </c>
       <c r="C16">
-        <v>20.26033715763782</v>
+        <v>16.25341406894661</v>
       </c>
       <c r="D16">
-        <v>3.261561670528638</v>
+        <v>5.152158246997274</v>
       </c>
       <c r="E16">
-        <v>11.28219444760549</v>
+        <v>6.267040120550768</v>
       </c>
       <c r="F16">
-        <v>47.97087504656521</v>
+        <v>44.39928226788741</v>
       </c>
       <c r="I16">
-        <v>29.54928710758212</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>9.188762771184102</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>23.40519831256807</v>
+        <v>23.31154077170914</v>
       </c>
       <c r="L16">
-        <v>15.9802592075862</v>
+        <v>6.503342438908212</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>15.64408955549599</v>
+      </c>
+      <c r="N16">
+        <v>14.88631153091944</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.20433724801367</v>
+        <v>27.58931052109228</v>
       </c>
       <c r="C17">
-        <v>19.78234534680071</v>
+        <v>15.8917614202644</v>
       </c>
       <c r="D17">
-        <v>3.286613487077388</v>
+        <v>5.185324870894133</v>
       </c>
       <c r="E17">
-        <v>11.01454101951576</v>
+        <v>6.263759270016575</v>
       </c>
       <c r="F17">
-        <v>47.03401455134176</v>
+        <v>43.6603208011508</v>
       </c>
       <c r="I17">
-        <v>29.08338603495142</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>9.041156988838893</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>22.86848376975956</v>
+        <v>22.77135406868268</v>
       </c>
       <c r="L17">
-        <v>15.60565916762824</v>
+        <v>6.46001029455765</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>15.39168728423499</v>
+      </c>
+      <c r="N17">
+        <v>14.93810734620231</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.85784932459166</v>
+        <v>27.21461925670066</v>
       </c>
       <c r="C18">
-        <v>19.50475905758277</v>
+        <v>15.68157366284462</v>
       </c>
       <c r="D18">
-        <v>3.301027936422182</v>
+        <v>5.204583392732182</v>
       </c>
       <c r="E18">
-        <v>10.85912866593836</v>
+        <v>6.261992396485105</v>
       </c>
       <c r="F18">
-        <v>46.49441560973284</v>
+        <v>43.2357399580705</v>
       </c>
       <c r="I18">
-        <v>28.81662689968438</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>8.956548434468131</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>22.55655670275299</v>
+        <v>22.45724655189268</v>
       </c>
       <c r="L18">
-        <v>15.388126858804</v>
+        <v>6.435453218327583</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>15.24630733602155</v>
+      </c>
+      <c r="N18">
+        <v>14.96863956926759</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.73989245135114</v>
+        <v>27.0870999985937</v>
       </c>
       <c r="C19">
-        <v>19.41030643189106</v>
+        <v>15.61002828243407</v>
       </c>
       <c r="D19">
-        <v>3.3059094026424</v>
+        <v>5.211134557229032</v>
       </c>
       <c r="E19">
-        <v>10.80625145595261</v>
+        <v>6.261414054102531</v>
       </c>
       <c r="F19">
-        <v>46.3115793576804</v>
+        <v>43.0920586470917</v>
       </c>
       <c r="I19">
-        <v>28.72650932451896</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>8.927949627084212</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>22.45037963134322</v>
+        <v>22.35030183642796</v>
       </c>
       <c r="L19">
-        <v>15.31411033543116</v>
+        <v>6.427200851139481</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>15.19704930409446</v>
+      </c>
+      <c r="N19">
+        <v>14.97910119277967</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.26816200819801</v>
+        <v>27.65834807742695</v>
       </c>
       <c r="C20">
-        <v>19.83350104193318</v>
+        <v>15.93048361501184</v>
       </c>
       <c r="D20">
-        <v>3.283946143962632</v>
+        <v>5.181775226364556</v>
       </c>
       <c r="E20">
-        <v>11.04318347328701</v>
+        <v>6.264095902104512</v>
       </c>
       <c r="F20">
-        <v>47.13381921098233</v>
+        <v>43.73893715417375</v>
       </c>
       <c r="I20">
-        <v>29.13285474315679</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>9.056839403551319</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>22.92594902825547</v>
+        <v>22.82920843112496</v>
       </c>
       <c r="L20">
-        <v>15.64574854990329</v>
+        <v>6.464584983110673</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>15.41857718416808</v>
+      </c>
+      <c r="N20">
+        <v>14.93251615117959</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.00004452411349</v>
+        <v>29.5332741431285</v>
       </c>
       <c r="C21">
-        <v>21.22441657706617</v>
+        <v>16.98164906935758</v>
       </c>
       <c r="D21">
-        <v>3.210213604051308</v>
+        <v>5.085363696099154</v>
       </c>
       <c r="E21">
-        <v>11.82217695117437</v>
+        <v>6.274602090110651</v>
       </c>
       <c r="F21">
-        <v>49.88847885078948</v>
+        <v>45.91805944851609</v>
       </c>
       <c r="I21">
-        <v>30.51317549015828</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>9.493513098273139</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>24.48610060277372</v>
+        <v>24.39821321242891</v>
       </c>
       <c r="L21">
-        <v>16.73586846387909</v>
+        <v>6.59462399247333</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>16.21280437012976</v>
+      </c>
+      <c r="N21">
+        <v>14.78510430319896</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.10194211404397</v>
+        <v>30.72712827102664</v>
       </c>
       <c r="C22">
-        <v>22.11231300725702</v>
+        <v>17.65073981121958</v>
       </c>
       <c r="D22">
-        <v>3.162072257005458</v>
+        <v>5.024164377219986</v>
       </c>
       <c r="E22">
-        <v>12.31963779227321</v>
+        <v>6.282728566200771</v>
       </c>
       <c r="F22">
-        <v>51.68532451965901</v>
+        <v>47.34745663180893</v>
       </c>
       <c r="I22">
-        <v>31.42794641508565</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>9.782015040945694</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>25.47961395022329</v>
+        <v>25.39533817817641</v>
       </c>
       <c r="L22">
-        <v>17.43183142707135</v>
+        <v>6.683052207391639</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>16.87011877520285</v>
+      </c>
+      <c r="N22">
+        <v>14.69617826014254</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.51643887825504</v>
+        <v>30.09272000244312</v>
       </c>
       <c r="C23">
-        <v>21.64022769859828</v>
+        <v>17.29519534094666</v>
       </c>
       <c r="D23">
-        <v>3.187761129255677</v>
+        <v>5.05665099680768</v>
       </c>
       <c r="E23">
-        <v>12.05512678004585</v>
+        <v>6.278265856942792</v>
       </c>
       <c r="F23">
-        <v>50.72644387983253</v>
+        <v>46.58400095920161</v>
       </c>
       <c r="I23">
-        <v>30.938449590144</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>9.627719612588512</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>24.95161345084683</v>
+        <v>24.86563855795793</v>
       </c>
       <c r="L23">
-        <v>17.06178864417607</v>
+        <v>6.635532071408631</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>16.52098268815173</v>
+      </c>
+      <c r="N23">
+        <v>14.74291753917386</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.23931878915184</v>
+        <v>27.62714848070629</v>
       </c>
       <c r="C24">
-        <v>19.81038224524843</v>
+        <v>15.91298439303985</v>
       </c>
       <c r="D24">
-        <v>3.285152012869845</v>
+        <v>5.183379428931715</v>
       </c>
       <c r="E24">
-        <v>11.03023901517347</v>
+        <v>6.263943341018413</v>
       </c>
       <c r="F24">
-        <v>47.08870062308963</v>
+        <v>43.70339390770761</v>
       </c>
       <c r="I24">
-        <v>29.11048655157814</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>9.049748603942403</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>22.89997948597725</v>
+        <v>22.80306354333813</v>
       </c>
       <c r="L24">
-        <v>15.6276309190289</v>
+        <v>6.462515662037275</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>15.40642110323364</v>
+      </c>
+      <c r="N24">
+        <v>14.93504159014969</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.64145509466986</v>
+        <v>24.90692276657748</v>
       </c>
       <c r="C25">
-        <v>17.73391758152568</v>
+        <v>14.33828110233534</v>
       </c>
       <c r="D25">
-        <v>3.390433267749575</v>
+        <v>5.326984313698264</v>
       </c>
       <c r="E25">
-        <v>9.883059199343288</v>
+        <v>6.253015171130491</v>
       </c>
       <c r="F25">
-        <v>43.13626050815674</v>
+        <v>40.61373924337421</v>
       </c>
       <c r="I25">
-        <v>27.18490733195836</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>8.43737424777253</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>20.56264612135314</v>
+        <v>20.44712118376779</v>
       </c>
       <c r="L25">
-        <v>14.00060460374239</v>
+        <v>6.289829231690115</v>
       </c>
       <c r="M25">
+        <v>14.34236524153046</v>
+      </c>
+      <c r="N25">
+        <v>15.17026961730575</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_31/res_line/loading_percent.xlsx
@@ -421,40 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.91097603471359</v>
+        <v>21.34919022353484</v>
       </c>
       <c r="C2">
-        <v>13.10013800598121</v>
+        <v>12.25416528577315</v>
       </c>
       <c r="D2">
-        <v>5.438015783642353</v>
+        <v>4.011326362211576</v>
       </c>
       <c r="E2">
-        <v>6.248050554104936</v>
+        <v>6.729382108060247</v>
       </c>
       <c r="F2">
-        <v>38.35315186594629</v>
+        <v>19.43947684851995</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>4.251792669784106</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>13.1692196161807</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>18.59027689496017</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>6.173876123630732</v>
+        <v>7.283354386559164</v>
       </c>
       <c r="M2">
-        <v>13.55364051507596</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>15.36407147684755</v>
+        <v>11.61058767969196</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>15.12171418146832</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.50017941799851</v>
+        <v>19.91538461742335</v>
       </c>
       <c r="C3">
-        <v>12.20918397975137</v>
+        <v>11.67517096243633</v>
       </c>
       <c r="D3">
-        <v>5.516369133062848</v>
+        <v>3.899113725011883</v>
       </c>
       <c r="E3">
-        <v>6.246284901496108</v>
+        <v>6.757698356730149</v>
       </c>
       <c r="F3">
-        <v>36.83246900133621</v>
+        <v>18.74833624107812</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>13.2157328287259</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>17.26681600832267</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>6.101940437351725</v>
+        <v>7.021169348069216</v>
       </c>
       <c r="M3">
-        <v>13.01740530095382</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>15.5068779796001</v>
+        <v>11.73824387464341</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>14.80836298832359</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.60616810852546</v>
+        <v>18.98243774131462</v>
       </c>
       <c r="C4">
-        <v>11.63578856102649</v>
+        <v>11.30416590228597</v>
       </c>
       <c r="D4">
-        <v>5.565970411831505</v>
+        <v>3.828197527829016</v>
       </c>
       <c r="E4">
-        <v>6.245899851792266</v>
+        <v>6.779536266636602</v>
       </c>
       <c r="F4">
-        <v>35.90587613400923</v>
+        <v>18.33099309647074</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>13.2586050661598</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16.53724067256369</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>6.060947750255303</v>
+        <v>6.85890990677456</v>
       </c>
       <c r="M4">
-        <v>12.68809609438861</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>15.59983561686513</v>
+        <v>11.82017921998099</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>14.62848032956853</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.23509073380917</v>
+        <v>18.58895686602511</v>
       </c>
       <c r="C5">
-        <v>11.39540206589877</v>
+        <v>11.14918952222041</v>
       </c>
       <c r="D5">
-        <v>5.586554343925656</v>
+        <v>3.798817164809434</v>
       </c>
       <c r="E5">
-        <v>6.245906928124112</v>
+        <v>6.789518195180334</v>
       </c>
       <c r="F5">
-        <v>35.53036880432816</v>
+        <v>18.16292673994014</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>13.27950254123163</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>16.23424881243564</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>6.045027025194144</v>
+        <v>6.792562949640703</v>
       </c>
       <c r="M5">
-        <v>12.55402962782108</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>15.63899263485971</v>
+        <v>11.85445111985794</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>14.55833284436681</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.17307354953712</v>
+        <v>18.52281437381694</v>
       </c>
       <c r="C6">
-        <v>11.35507739349645</v>
+        <v>11.12323057055608</v>
       </c>
       <c r="D6">
-        <v>5.589994607047145</v>
+        <v>3.793910296727033</v>
       </c>
       <c r="E6">
-        <v>6.24591768622424</v>
+        <v>6.791240030264542</v>
       </c>
       <c r="F6">
-        <v>35.46815182223968</v>
+        <v>18.13514765042289</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>13.28317451508872</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>16.18360020118899</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>6.042430331909339</v>
+        <v>6.781535472938629</v>
       </c>
       <c r="M6">
-        <v>12.53178045025306</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>15.645570342937</v>
+        <v>11.86019495154858</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>14.54687554838165</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.60119064282269</v>
+        <v>18.9771850597691</v>
       </c>
       <c r="C7">
-        <v>11.63257396699511</v>
+        <v>11.30209101827554</v>
       </c>
       <c r="D7">
-        <v>5.566246516046475</v>
+        <v>3.827803207626694</v>
       </c>
       <c r="E7">
-        <v>6.245899297930125</v>
+        <v>6.779666549963101</v>
       </c>
       <c r="F7">
-        <v>35.90080303010865</v>
+        <v>18.32871805708995</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>13.25887324853706</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16.53317716069618</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>6.060729882185717</v>
+        <v>6.85801590610066</v>
       </c>
       <c r="M7">
-        <v>12.68628729576987</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>15.60035859743811</v>
+        <v>11.82063786284663</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>14.62752151417131</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.43040651135778</v>
+        <v>20.86568251434587</v>
       </c>
       <c r="C8">
-        <v>12.79834172391173</v>
+        <v>12.0578041048226</v>
       </c>
       <c r="D8">
-        <v>5.464719308576472</v>
+        <v>3.973068913272859</v>
       </c>
       <c r="E8">
-        <v>6.24728915327208</v>
+        <v>6.738199373218221</v>
       </c>
       <c r="F8">
-        <v>37.82750593259824</v>
+        <v>19.19985489571414</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>13.18218247536112</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>18.137078144078</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>6.148404733065293</v>
+        <v>7.193273026511479</v>
       </c>
       <c r="M8">
-        <v>13.3688386031527</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>15.4121844924554</v>
+        <v>11.65385881266784</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>15.01108178999742</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.79155629100558</v>
+        <v>24.15523066777069</v>
       </c>
       <c r="C9">
-        <v>14.8805410927659</v>
+        <v>13.41299047207793</v>
       </c>
       <c r="D9">
-        <v>5.277754068503366</v>
+        <v>4.240908494250801</v>
       </c>
       <c r="E9">
-        <v>6.256169414446963</v>
+        <v>6.69387889261847</v>
       </c>
       <c r="F9">
-        <v>41.65240340620642</v>
+        <v>20.95401766896203</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>13.15312291908279</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>21.25912338954664</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>6.346211774270001</v>
+        <v>7.836811126487196</v>
       </c>
       <c r="M9">
-        <v>14.70175591885081</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>15.08762434786623</v>
+        <v>11.35557688788084</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>15.8616612051485</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.30728050030315</v>
+        <v>26.32469435842278</v>
       </c>
       <c r="C10">
-        <v>16.29439110755774</v>
+        <v>14.32754445989453</v>
       </c>
       <c r="D10">
-        <v>5.148398920244648</v>
+        <v>4.426101121267791</v>
       </c>
       <c r="E10">
-        <v>6.267431367051306</v>
+        <v>6.686216634558168</v>
       </c>
       <c r="F10">
-        <v>44.48366664126338</v>
+        <v>22.25896691086269</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>13.21633664051169</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>23.37272471689868</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>6.508337141064836</v>
+        <v>8.296775857418739</v>
       </c>
       <c r="M10">
-        <v>15.67286259177727</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>14.88050420444187</v>
+        <v>11.15488676239063</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>16.54490875656897</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.41365338439763</v>
+        <v>27.25901852368511</v>
       </c>
       <c r="C11">
-        <v>16.91460307225551</v>
+        <v>14.72548197306853</v>
       </c>
       <c r="D11">
-        <v>5.091508874286417</v>
+        <v>4.507620619680966</v>
       </c>
       <c r="E11">
-        <v>6.273851081439956</v>
+        <v>6.688654753422214</v>
       </c>
       <c r="F11">
-        <v>45.77657652604696</v>
+        <v>22.85410498122087</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>13.26569014709167</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>24.29822760329339</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>6.58600015861745</v>
+        <v>8.502508274654033</v>
       </c>
       <c r="M11">
-        <v>16.14687207060738</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>14.79423799668481</v>
+        <v>11.06784043847133</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>16.86796504112292</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.82717559688359</v>
+        <v>27.60535345138711</v>
       </c>
       <c r="C12">
-        <v>17.14637147320329</v>
+        <v>14.8735416925876</v>
       </c>
       <c r="D12">
-        <v>5.070273450709673</v>
+        <v>4.538082855249506</v>
       </c>
       <c r="E12">
-        <v>6.276495523888699</v>
+        <v>6.690473110711776</v>
       </c>
       <c r="F12">
-        <v>46.26704097311949</v>
+        <v>23.0795511278848</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>13.28751925109682</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>24.64381062768779</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>6.615997064751395</v>
+        <v>8.57986118620596</v>
       </c>
       <c r="M12">
-        <v>16.37473959773098</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>14.76283147050391</v>
+        <v>11.03551353305172</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>16.99202098796564</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.73835282985753</v>
+        <v>27.53109499039946</v>
       </c>
       <c r="C13">
-        <v>17.09658990801288</v>
+        <v>14.84177171225977</v>
       </c>
       <c r="D13">
-        <v>5.074832692029807</v>
+        <v>4.531540614645349</v>
       </c>
       <c r="E13">
-        <v>6.275916024143492</v>
+        <v>6.690040990948512</v>
       </c>
       <c r="F13">
-        <v>46.16136836925852</v>
+        <v>23.03099557473232</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>13.28267553027107</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>24.5695953837438</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>6.60951011077004</v>
+        <v>8.56322715250027</v>
       </c>
       <c r="M13">
-        <v>16.32580801669475</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>14.76953729952196</v>
+        <v>11.04244701257841</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>16.96522733703912</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.44778122748876</v>
+        <v>27.28766097502914</v>
       </c>
       <c r="C14">
-        <v>16.93373147798246</v>
+        <v>14.73771577888005</v>
       </c>
       <c r="D14">
-        <v>5.089755478666931</v>
+        <v>4.510135013557457</v>
       </c>
       <c r="E14">
-        <v>6.27406419281447</v>
+        <v>6.688786162070408</v>
       </c>
       <c r="F14">
-        <v>45.81690863874186</v>
+        <v>22.87265164617438</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>13.26742210853702</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>24.32675503495855</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>6.588456085361378</v>
+        <v>8.50888348624852</v>
       </c>
       <c r="M14">
-        <v>16.16568395624115</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>14.7916281621708</v>
+        <v>11.06516799237286</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>16.87813690734777</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.26909914404377</v>
+        <v>27.13757999186906</v>
       </c>
       <c r="C15">
-        <v>16.83357993949749</v>
+        <v>14.67363528556346</v>
       </c>
       <c r="D15">
-        <v>5.098937094600497</v>
+        <v>4.496969978438789</v>
       </c>
       <c r="E15">
-        <v>6.27295856693693</v>
+        <v>6.688135403895136</v>
       </c>
       <c r="F15">
-        <v>45.60603668321438</v>
+        <v>22.77566829098557</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>13.2584930668443</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>24.17738138498303</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>6.575637233875938</v>
+        <v>8.475523042236018</v>
       </c>
       <c r="M15">
-        <v>16.06717884764075</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>14.80532740868388</v>
+        <v>11.07916881588869</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>16.82501459958321</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.23419862532254</v>
+        <v>26.26258348634944</v>
       </c>
       <c r="C16">
-        <v>16.25341406894661</v>
+        <v>14.30117147789146</v>
       </c>
       <c r="D16">
-        <v>5.152158246997274</v>
+        <v>4.420717416149428</v>
       </c>
       <c r="E16">
-        <v>6.267040120550768</v>
+        <v>6.686180185097812</v>
       </c>
       <c r="F16">
-        <v>44.39928226788741</v>
+        <v>22.220091285045</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>13.2135410848692</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>23.31154077170914</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>6.503342438908212</v>
+        <v>8.283255767394895</v>
       </c>
       <c r="M16">
-        <v>15.64408955549599</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>14.88631153091944</v>
+        <v>11.16066297804285</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>16.52403923085381</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.58931052109228</v>
+        <v>25.7123965309926</v>
       </c>
       <c r="C17">
-        <v>15.8917614202644</v>
+        <v>14.06801818093018</v>
       </c>
       <c r="D17">
-        <v>5.185324870894133</v>
+        <v>4.373229214033046</v>
       </c>
       <c r="E17">
-        <v>6.263759270016575</v>
+        <v>6.686528547065322</v>
       </c>
       <c r="F17">
-        <v>43.6603208011508</v>
+        <v>21.87954332355394</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>13.19136824659699</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>22.77135406868268</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>6.46001029455765</v>
+        <v>8.164369717866659</v>
       </c>
       <c r="M17">
-        <v>15.39168728423499</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>14.93810734620231</v>
+        <v>11.21176178277184</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>16.34250779293804</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.21461925670066</v>
+        <v>25.39098949645012</v>
       </c>
       <c r="C18">
-        <v>15.68157366284462</v>
+        <v>13.9322120709596</v>
       </c>
       <c r="D18">
-        <v>5.204583392732182</v>
+        <v>4.34565951410817</v>
       </c>
       <c r="E18">
-        <v>6.261992396485105</v>
+        <v>6.687283860861772</v>
       </c>
       <c r="F18">
-        <v>43.2357399580705</v>
+        <v>21.68381773762913</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>13.18054334446144</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>22.45724655189268</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>6.435453218327583</v>
+        <v>8.095661767489572</v>
       </c>
       <c r="M18">
-        <v>15.24630733602155</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>14.96863956926759</v>
+        <v>11.24155070442061</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>16.23925038545979</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.0870999985937</v>
+        <v>25.28131313189366</v>
       </c>
       <c r="C19">
-        <v>15.61002828243407</v>
+        <v>13.88593908858569</v>
       </c>
       <c r="D19">
-        <v>5.211134557229032</v>
+        <v>4.336281467515004</v>
       </c>
       <c r="E19">
-        <v>6.261414054102531</v>
+        <v>6.68763359966462</v>
       </c>
       <c r="F19">
-        <v>43.0920586470917</v>
+        <v>21.61757856718405</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>13.17720390197196</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>22.35030183642796</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>6.427200851139481</v>
+        <v>8.072343776433179</v>
       </c>
       <c r="M19">
-        <v>15.19704930409446</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>14.97910119277967</v>
+        <v>11.25170441749352</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>16.20448875543771</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.65834807742695</v>
+        <v>25.77147697615207</v>
       </c>
       <c r="C20">
-        <v>15.93048361501184</v>
+        <v>14.09301418836236</v>
       </c>
       <c r="D20">
-        <v>5.181775226364556</v>
+        <v>4.378311000946741</v>
       </c>
       <c r="E20">
-        <v>6.264095902104512</v>
+        <v>6.686433716841778</v>
       </c>
       <c r="F20">
-        <v>43.73893715417375</v>
+        <v>21.91578093728163</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>13.19352770197364</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>22.82920843112496</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>6.464584983110673</v>
+        <v>8.17705965571794</v>
       </c>
       <c r="M20">
-        <v>15.41857718416808</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>14.93251615117959</v>
+        <v>11.20628084238286</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>16.36171291314481</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.5332741431285</v>
+        <v>27.35936556300668</v>
       </c>
       <c r="C21">
-        <v>16.98164906935758</v>
+        <v>14.76835109281454</v>
       </c>
       <c r="D21">
-        <v>5.085363696099154</v>
+        <v>4.516433528962128</v>
       </c>
       <c r="E21">
-        <v>6.274602090110651</v>
+        <v>6.689130095737661</v>
       </c>
       <c r="F21">
-        <v>45.91805944851609</v>
+        <v>22.91915986848685</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>13.27181579576994</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>24.39821321242891</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>6.59462399247333</v>
+        <v>8.524860905178503</v>
       </c>
       <c r="M21">
-        <v>16.21280437012976</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>14.78510430319896</v>
+        <v>11.05847682590547</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>16.90367104915612</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.72712827102664</v>
+        <v>28.35362467165415</v>
       </c>
       <c r="C22">
-        <v>17.65073981121958</v>
+        <v>15.19438412075148</v>
       </c>
       <c r="D22">
-        <v>5.024164377219986</v>
+        <v>4.604323925561992</v>
       </c>
       <c r="E22">
-        <v>6.282728566200771</v>
+        <v>6.696130054823095</v>
       </c>
       <c r="F22">
-        <v>47.34745663180893</v>
+        <v>23.57535058660365</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>13.34136261556068</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>25.39533817817641</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>6.683052207391639</v>
+        <v>8.748926663830838</v>
       </c>
       <c r="M22">
-        <v>16.87011877520285</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>14.69617826014254</v>
+        <v>10.96559719661144</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>17.26789148503397</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.09272000244312</v>
+        <v>27.82692223251679</v>
       </c>
       <c r="C23">
-        <v>17.29519534094666</v>
+        <v>14.96841231895243</v>
       </c>
       <c r="D23">
-        <v>5.05665099680768</v>
+        <v>4.557637624428818</v>
       </c>
       <c r="E23">
-        <v>6.278265856942792</v>
+        <v>6.691900367957025</v>
       </c>
       <c r="F23">
-        <v>46.58400095920161</v>
+        <v>23.22512827375155</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>13.30250485935345</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>24.86563855795793</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>6.635532071408631</v>
+        <v>8.62964907430905</v>
       </c>
       <c r="M23">
-        <v>16.52098268815173</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>14.74291753917386</v>
+        <v>11.01481952574046</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>17.07259525620847</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.62714848070629</v>
+        <v>25.74478259015898</v>
       </c>
       <c r="C24">
-        <v>15.91298439303985</v>
+        <v>14.08171898303885</v>
       </c>
       <c r="D24">
-        <v>5.183379428931715</v>
+        <v>4.376014358957614</v>
       </c>
       <c r="E24">
-        <v>6.263943341018413</v>
+        <v>6.686474864044291</v>
       </c>
       <c r="F24">
-        <v>43.70339390770761</v>
+        <v>21.89939771458045</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>13.19254543742655</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>22.80306354333813</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>6.462515662037275</v>
+        <v>8.171323648496335</v>
       </c>
       <c r="M24">
-        <v>15.40642110323364</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>14.93504159014969</v>
+        <v>11.2087574955122</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>16.35302682585754</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.90692276657748</v>
+        <v>23.30912200146162</v>
       </c>
       <c r="C25">
-        <v>14.33828110233534</v>
+        <v>13.06040241621707</v>
       </c>
       <c r="D25">
-        <v>5.326984313698264</v>
+        <v>4.170406731391225</v>
       </c>
       <c r="E25">
-        <v>6.253015171130491</v>
+        <v>6.701668531582046</v>
       </c>
       <c r="F25">
-        <v>40.61373924337421</v>
+        <v>20.47585813545549</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>13.14689764459675</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>20.44712118376779</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>6.289829231690115</v>
+        <v>7.664692862090987</v>
       </c>
       <c r="M25">
-        <v>14.34236524153046</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>15.17026961730575</v>
+        <v>11.43310321271344</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>15.62117044099023</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_31/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.34919022353484</v>
+        <v>15.33611787836898</v>
       </c>
       <c r="C2">
-        <v>12.25416528577315</v>
+        <v>9.62931669507082</v>
       </c>
       <c r="D2">
-        <v>4.011326362211576</v>
+        <v>4.597420465463608</v>
       </c>
       <c r="E2">
-        <v>6.729382108060247</v>
+        <v>11.29807201308686</v>
       </c>
       <c r="F2">
-        <v>19.43947684851995</v>
+        <v>23.94278361640684</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669784106</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>13.1692196161807</v>
+        <v>21.21371602361771</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.283354386559164</v>
+        <v>9.793511073609054</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.61058767969196</v>
+        <v>16.97128367727474</v>
       </c>
       <c r="O2">
-        <v>15.12171418146832</v>
+        <v>21.3076479425896</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.91538461742335</v>
+        <v>14.79978730627854</v>
       </c>
       <c r="C3">
-        <v>11.67517096243633</v>
+        <v>9.385398829476371</v>
       </c>
       <c r="D3">
-        <v>3.899113725011883</v>
+        <v>4.561524701291538</v>
       </c>
       <c r="E3">
-        <v>6.757698356730149</v>
+        <v>11.33472574819236</v>
       </c>
       <c r="F3">
-        <v>18.74833624107812</v>
+        <v>23.90313876310395</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>13.2157328287259</v>
+        <v>21.30434765447433</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.021169348069216</v>
+        <v>9.766638514954575</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.73824387464341</v>
+        <v>17.0175192494339</v>
       </c>
       <c r="O3">
-        <v>14.80836298832359</v>
+        <v>21.33763568331371</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.98243774131462</v>
+        <v>14.46219974906855</v>
       </c>
       <c r="C4">
-        <v>11.30416590228597</v>
+        <v>9.231070339598762</v>
       </c>
       <c r="D4">
-        <v>3.828197527829016</v>
+        <v>4.539054447938447</v>
       </c>
       <c r="E4">
-        <v>6.779536266636602</v>
+        <v>11.35908074061755</v>
       </c>
       <c r="F4">
-        <v>18.33099309647074</v>
+        <v>23.88630220175034</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>13.2586050661598</v>
+        <v>21.36494592026647</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.85890990677456</v>
+        <v>9.751866905584979</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.82017921998099</v>
+        <v>17.04769044553765</v>
       </c>
       <c r="O4">
-        <v>14.62848032956853</v>
+        <v>21.36183839125067</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.58895686602511</v>
+        <v>14.32275817636322</v>
       </c>
       <c r="C5">
-        <v>11.14918952222041</v>
+        <v>9.167091483399178</v>
       </c>
       <c r="D5">
-        <v>3.798817164809434</v>
+        <v>4.529793137811009</v>
       </c>
       <c r="E5">
-        <v>6.789518195180334</v>
+        <v>11.36947058010739</v>
       </c>
       <c r="F5">
-        <v>18.16292673994014</v>
+        <v>23.88133300709757</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>13.27950254123163</v>
+        <v>21.39088183560228</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.792562949640703</v>
+        <v>9.746286305179082</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.85445111985794</v>
+        <v>17.06043444482728</v>
       </c>
       <c r="O5">
-        <v>14.55833284436681</v>
+        <v>21.37315355256283</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.52281437381694</v>
+        <v>14.29949746584854</v>
       </c>
       <c r="C6">
-        <v>11.12323057055608</v>
+        <v>9.156403872213788</v>
       </c>
       <c r="D6">
-        <v>3.793910296727033</v>
+        <v>4.528249100109575</v>
       </c>
       <c r="E6">
-        <v>6.791240030264542</v>
+        <v>11.37122388656341</v>
       </c>
       <c r="F6">
-        <v>18.13514765042289</v>
+        <v>23.88062223020135</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>13.28317451508872</v>
+        <v>21.39526337482677</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.781535472938629</v>
+        <v>9.745386281979245</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.86019495154858</v>
+        <v>17.06257771805997</v>
       </c>
       <c r="O6">
-        <v>14.54687554838165</v>
+        <v>21.37512002751469</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.9771850597691</v>
+        <v>14.4603264789444</v>
       </c>
       <c r="C7">
-        <v>11.30209101827554</v>
+        <v>9.230211826494228</v>
       </c>
       <c r="D7">
-        <v>3.827803207626694</v>
+        <v>4.538929964947786</v>
       </c>
       <c r="E7">
-        <v>6.779666549963101</v>
+        <v>11.35921897902846</v>
       </c>
       <c r="F7">
-        <v>18.32871805708995</v>
+        <v>23.88622752105204</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>13.25887324853706</v>
+        <v>21.36529067791629</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.85801590610066</v>
+        <v>9.751789860890664</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.82063786284663</v>
+        <v>17.04786049654992</v>
       </c>
       <c r="O7">
-        <v>14.62752151417131</v>
+        <v>21.36198511618566</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.86568251434587</v>
+        <v>15.15302908782254</v>
       </c>
       <c r="C8">
-        <v>12.0578041048226</v>
+        <v>9.546194401480554</v>
       </c>
       <c r="D8">
-        <v>3.973068913272859</v>
+        <v>4.585135055784682</v>
       </c>
       <c r="E8">
-        <v>6.738199373218221</v>
+        <v>11.31032632289187</v>
       </c>
       <c r="F8">
-        <v>19.19985489571414</v>
+        <v>23.927559619593</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>13.18218247536112</v>
+        <v>21.24393656076738</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.193273026511479</v>
+        <v>9.783889455423536</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.65385881266784</v>
+        <v>16.98685625101462</v>
       </c>
       <c r="O8">
-        <v>15.01108178999742</v>
+        <v>21.3167839948365</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.15523066777069</v>
+        <v>16.43750218531819</v>
       </c>
       <c r="C9">
-        <v>13.41299047207793</v>
+        <v>10.12728418958776</v>
       </c>
       <c r="D9">
-        <v>4.240908494250801</v>
+        <v>4.672172816318253</v>
       </c>
       <c r="E9">
-        <v>6.69387889261847</v>
+        <v>11.22912585648768</v>
       </c>
       <c r="F9">
-        <v>20.95401766896203</v>
+        <v>24.06787303428612</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>13.15312291908279</v>
+        <v>21.04537618889174</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.836811126487196</v>
+        <v>9.860340714838914</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.35557688788084</v>
+        <v>16.88133364027149</v>
       </c>
       <c r="O9">
-        <v>15.8616612051485</v>
+        <v>21.27422101782884</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.32469435842278</v>
+        <v>17.32645871805558</v>
       </c>
       <c r="C10">
-        <v>14.32754445989453</v>
+        <v>10.52785043375078</v>
       </c>
       <c r="D10">
-        <v>4.426101121267791</v>
+        <v>4.733736518958454</v>
       </c>
       <c r="E10">
-        <v>6.686216634558168</v>
+        <v>11.17842023797246</v>
       </c>
       <c r="F10">
-        <v>22.25896691086269</v>
+        <v>24.20656221360478</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>13.21633664051169</v>
+        <v>20.9237096058317</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.296775857418739</v>
+        <v>9.924438123534596</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.15488676239063</v>
+        <v>16.8123569798488</v>
       </c>
       <c r="O10">
-        <v>16.54490875656897</v>
+        <v>21.27118249664148</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.25901852368511</v>
+        <v>17.71729242500078</v>
       </c>
       <c r="C11">
-        <v>14.72548197306853</v>
+        <v>10.7038309110549</v>
       </c>
       <c r="D11">
-        <v>4.507620619680966</v>
+        <v>4.76118318699709</v>
       </c>
       <c r="E11">
-        <v>6.688654753422214</v>
+        <v>11.15729778451193</v>
       </c>
       <c r="F11">
-        <v>22.85410498122087</v>
+        <v>24.27723070043844</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>13.26569014709167</v>
+        <v>20.87365832169453</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.502508274654033</v>
+        <v>9.955246902742152</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.06784043847133</v>
+        <v>16.78282440021101</v>
       </c>
       <c r="O11">
-        <v>16.86796504112292</v>
+        <v>21.27594640141346</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.60535345138711</v>
+        <v>17.86322277005391</v>
       </c>
       <c r="C12">
-        <v>14.8735416925876</v>
+        <v>10.76953435833031</v>
       </c>
       <c r="D12">
-        <v>4.538082855249506</v>
+        <v>4.771492574080232</v>
       </c>
       <c r="E12">
-        <v>6.690473110711776</v>
+        <v>11.14957887830403</v>
       </c>
       <c r="F12">
-        <v>23.0795511278848</v>
+        <v>24.30506448100369</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>13.28751925109682</v>
+        <v>20.85546997235783</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.57986118620596</v>
+        <v>9.967144042891482</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.03551353305172</v>
+        <v>16.77190580671756</v>
       </c>
       <c r="O12">
-        <v>16.99202098796564</v>
+        <v>21.27863415369143</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.53109499039946</v>
+        <v>17.83188787783759</v>
       </c>
       <c r="C13">
-        <v>14.84177171225977</v>
+        <v>10.75542618570624</v>
       </c>
       <c r="D13">
-        <v>4.531540614645349</v>
+        <v>4.76927606019276</v>
       </c>
       <c r="E13">
-        <v>6.690040990948512</v>
+        <v>11.15122883972092</v>
       </c>
       <c r="F13">
-        <v>23.03099557473232</v>
+        <v>24.29902253355199</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>13.28267553027107</v>
+        <v>20.85935308049409</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.56322715250027</v>
+        <v>9.964571640348439</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.04244701257841</v>
+        <v>16.77424555538197</v>
       </c>
       <c r="O13">
-        <v>16.96522733703912</v>
+        <v>21.27801600153713</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.28766097502914</v>
+        <v>17.7293403229131</v>
       </c>
       <c r="C14">
-        <v>14.73771577888005</v>
+        <v>10.70925535517284</v>
       </c>
       <c r="D14">
-        <v>4.510135013557457</v>
+        <v>4.762033052268086</v>
       </c>
       <c r="E14">
-        <v>6.688786162070408</v>
+        <v>11.15665713858395</v>
       </c>
       <c r="F14">
-        <v>22.87265164617438</v>
+        <v>24.27949919635149</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>13.26742210853702</v>
+        <v>20.87214660386333</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.50888348624852</v>
+        <v>9.956221107807304</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.06516799237286</v>
+        <v>16.78192081820758</v>
       </c>
       <c r="O14">
-        <v>16.87813690734777</v>
+        <v>21.2761498154944</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.13757999186906</v>
+        <v>17.66625410417474</v>
       </c>
       <c r="C15">
-        <v>14.67363528556346</v>
+        <v>10.68085131821089</v>
       </c>
       <c r="D15">
-        <v>4.496969978438789</v>
+        <v>4.757585443963467</v>
       </c>
       <c r="E15">
-        <v>6.688135403895136</v>
+        <v>11.16001856035479</v>
       </c>
       <c r="F15">
-        <v>22.77566829098557</v>
+        <v>24.2676798209404</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>13.2584930668443</v>
+        <v>20.88008273339067</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.475523042236018</v>
+        <v>9.951135978514843</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.07916881588869</v>
+        <v>16.78665659985352</v>
       </c>
       <c r="O15">
-        <v>16.82501459958321</v>
+        <v>21.27512180021445</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.26258348634944</v>
+        <v>17.30063337584057</v>
       </c>
       <c r="C16">
-        <v>14.30117147789146</v>
+        <v>10.5162206986866</v>
       </c>
       <c r="D16">
-        <v>4.420717416149428</v>
+        <v>4.731931249644142</v>
       </c>
       <c r="E16">
-        <v>6.686180185097812</v>
+        <v>11.17983977067504</v>
       </c>
       <c r="F16">
-        <v>22.220091285045</v>
+        <v>24.20209498101464</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>13.2135410848692</v>
+        <v>20.92708743365619</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.283255767394895</v>
+        <v>9.922457334884051</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.16066297804285</v>
+        <v>16.81432408348333</v>
       </c>
       <c r="O16">
-        <v>16.52403923085381</v>
+        <v>21.27099485466198</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.7123965309926</v>
+        <v>17.07277410579491</v>
       </c>
       <c r="C17">
-        <v>14.06801818093018</v>
+        <v>10.41359796165364</v>
       </c>
       <c r="D17">
-        <v>4.373229214033046</v>
+        <v>4.716047418964776</v>
       </c>
       <c r="E17">
-        <v>6.686528547065322</v>
+        <v>11.19249743155523</v>
       </c>
       <c r="F17">
-        <v>21.87954332355394</v>
+        <v>24.16379057342115</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>13.19136824659699</v>
+        <v>20.95728209487194</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.164369717866659</v>
+        <v>9.905281911648965</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.21176178277184</v>
+        <v>16.8317693736037</v>
       </c>
       <c r="O17">
-        <v>16.34250779293804</v>
+        <v>21.27003750075431</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.39098949645012</v>
+        <v>16.94044561705241</v>
       </c>
       <c r="C18">
-        <v>13.9322120709596</v>
+        <v>10.35398693253349</v>
       </c>
       <c r="D18">
-        <v>4.34565951410817</v>
+        <v>4.706859063473471</v>
       </c>
       <c r="E18">
-        <v>6.687283860861772</v>
+        <v>11.19996073042453</v>
       </c>
       <c r="F18">
-        <v>21.68381773762913</v>
+        <v>24.14247329386912</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>13.18054334446144</v>
+        <v>20.97514749131797</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.095661767489572</v>
+        <v>9.89555884962353</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.24155070442061</v>
+        <v>16.84197716057625</v>
       </c>
       <c r="O18">
-        <v>16.23925038545979</v>
+        <v>21.2700654123113</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.28131313189366</v>
+        <v>16.89542728139917</v>
       </c>
       <c r="C19">
-        <v>13.88593908858569</v>
+        <v>10.33370442376301</v>
       </c>
       <c r="D19">
-        <v>4.336281467515004</v>
+        <v>4.703739158687859</v>
       </c>
       <c r="E19">
-        <v>6.68763359966462</v>
+        <v>11.20251909051818</v>
       </c>
       <c r="F19">
-        <v>21.61757856718405</v>
+        <v>24.13537880126194</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>13.17720390197196</v>
+        <v>20.9812818709199</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.072343776433179</v>
+        <v>9.892293746940444</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.25170441749352</v>
+        <v>16.84546319638137</v>
       </c>
       <c r="O19">
-        <v>16.20448875543771</v>
+        <v>21.27017421873828</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.77147697615207</v>
+        <v>17.09716246000503</v>
       </c>
       <c r="C20">
-        <v>14.09301418836236</v>
+        <v>10.4245831844603</v>
       </c>
       <c r="D20">
-        <v>4.378311000946741</v>
+        <v>4.71774372961838</v>
       </c>
       <c r="E20">
-        <v>6.686433716841778</v>
+        <v>11.19113106618402</v>
       </c>
       <c r="F20">
-        <v>21.91578093728163</v>
+        <v>24.16779431878082</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>13.19352770197364</v>
+        <v>20.95401623158038</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.17705965571794</v>
+        <v>9.90709418976841</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.20628084238286</v>
+        <v>16.82989431792149</v>
       </c>
       <c r="O20">
-        <v>16.36171291314481</v>
+        <v>21.27007953210794</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.35936556300668</v>
+        <v>17.75951808778817</v>
       </c>
       <c r="C21">
-        <v>14.76835109281454</v>
+        <v>10.72284256007666</v>
       </c>
       <c r="D21">
-        <v>4.516433528962128</v>
+        <v>4.764162809984782</v>
       </c>
       <c r="E21">
-        <v>6.689130095737661</v>
+        <v>11.1550551228947</v>
       </c>
       <c r="F21">
-        <v>22.91915986848685</v>
+        <v>24.28520469008949</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>13.27181579576994</v>
+        <v>20.86836804670461</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.524860905178503</v>
+        <v>9.958667661257085</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.05847682590547</v>
+        <v>16.77965922673346</v>
       </c>
       <c r="O21">
-        <v>16.90367104915612</v>
+        <v>21.27667397869576</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.35362467165415</v>
+        <v>18.18029522282178</v>
       </c>
       <c r="C22">
-        <v>15.19438412075148</v>
+        <v>10.91229774562537</v>
       </c>
       <c r="D22">
-        <v>4.604323925561992</v>
+        <v>4.794008674159671</v>
       </c>
       <c r="E22">
-        <v>6.696130054823095</v>
+        <v>11.1331078498068</v>
       </c>
       <c r="F22">
-        <v>23.57535058660365</v>
+        <v>24.36818531597034</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>13.34136261556068</v>
+        <v>20.8168525248282</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.748926663830838</v>
+        <v>9.993714188413824</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.96559719661144</v>
+        <v>16.74837061769348</v>
       </c>
       <c r="O22">
-        <v>17.26789148503397</v>
+        <v>21.2861345107607</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.82692223251679</v>
+        <v>17.95686265291778</v>
       </c>
       <c r="C23">
-        <v>14.96841231895243</v>
+        <v>10.81169492602823</v>
       </c>
       <c r="D23">
-        <v>4.557637624428818</v>
+        <v>4.778125565317983</v>
       </c>
       <c r="E23">
-        <v>6.691900367957025</v>
+        <v>11.1446722742522</v>
       </c>
       <c r="F23">
-        <v>23.22512827375155</v>
+        <v>24.32333143619526</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>13.30250485935345</v>
+        <v>20.84393804348607</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.62964907430905</v>
+        <v>9.974888897993344</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.01481952574046</v>
+        <v>16.76492894891686</v>
       </c>
       <c r="O23">
-        <v>17.07259525620847</v>
+        <v>21.28061417753125</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.74478259015898</v>
+        <v>17.08614061578533</v>
       </c>
       <c r="C24">
-        <v>14.08171898303885</v>
+        <v>10.41961866802484</v>
       </c>
       <c r="D24">
-        <v>4.376014358957614</v>
+        <v>4.716977003362747</v>
       </c>
       <c r="E24">
-        <v>6.686474864044291</v>
+        <v>11.1917482198644</v>
       </c>
       <c r="F24">
-        <v>21.89939771458045</v>
+        <v>24.16598202998832</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>13.19254543742655</v>
+        <v>20.95549115219574</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.171323648496335</v>
+        <v>9.906274386982732</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.2087574955122</v>
+        <v>16.83074147527696</v>
       </c>
       <c r="O24">
-        <v>16.35302682585754</v>
+        <v>21.27005872832707</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.30912200146162</v>
+        <v>16.09900253994999</v>
       </c>
       <c r="C25">
-        <v>13.06040241621707</v>
+        <v>9.974522196392611</v>
       </c>
       <c r="D25">
-        <v>4.170406731391225</v>
+        <v>4.64903049743976</v>
       </c>
       <c r="E25">
-        <v>6.701668531582046</v>
+        <v>11.24952090739029</v>
       </c>
       <c r="F25">
-        <v>20.47585813545549</v>
+        <v>24.02361631517358</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>13.14689764459675</v>
+        <v>21.09485296442465</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.664692862090987</v>
+        <v>9.838242758349541</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.43310321271344</v>
+        <v>16.90837524040968</v>
       </c>
       <c r="O25">
-        <v>15.62117044099023</v>
+        <v>21.28078502532788</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_31/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.33611787836898</v>
+        <v>21.34919022353484</v>
       </c>
       <c r="C2">
-        <v>9.62931669507082</v>
+        <v>12.25416528577307</v>
       </c>
       <c r="D2">
-        <v>4.597420465463608</v>
+        <v>4.011326362211507</v>
       </c>
       <c r="E2">
-        <v>11.29807201308686</v>
+        <v>6.729382108060242</v>
       </c>
       <c r="F2">
-        <v>23.94278361640684</v>
+        <v>19.43947684851998</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="I2">
-        <v>21.21371602361771</v>
+        <v>13.16921961618073</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.793511073609054</v>
+        <v>7.283354386559165</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.97128367727474</v>
+        <v>11.61058767969199</v>
       </c>
       <c r="O2">
-        <v>21.3076479425896</v>
+        <v>15.12171418146835</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.79978730627854</v>
+        <v>19.91538461742334</v>
       </c>
       <c r="C3">
-        <v>9.385398829476371</v>
+        <v>11.67517096243648</v>
       </c>
       <c r="D3">
-        <v>4.561524701291538</v>
+        <v>3.899113725011984</v>
       </c>
       <c r="E3">
-        <v>11.33472574819236</v>
+        <v>6.757698356730154</v>
       </c>
       <c r="F3">
-        <v>23.90313876310395</v>
+        <v>18.74833624107812</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>21.30434765447433</v>
+        <v>13.21573282872595</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.766638514954575</v>
+        <v>7.021169348069202</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.0175192494339</v>
+        <v>11.7382438746434</v>
       </c>
       <c r="O3">
-        <v>21.33763568331371</v>
+        <v>14.80836298832361</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.46219974906855</v>
+        <v>18.98243774131467</v>
       </c>
       <c r="C4">
-        <v>9.231070339598762</v>
+        <v>11.30416590228566</v>
       </c>
       <c r="D4">
-        <v>4.539054447938447</v>
+        <v>3.82819752782913</v>
       </c>
       <c r="E4">
-        <v>11.35908074061755</v>
+        <v>6.779536266636546</v>
       </c>
       <c r="F4">
-        <v>23.88630220175034</v>
+        <v>18.33099309647076</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>21.36494592026647</v>
+        <v>13.2586050661598</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.751866905584979</v>
+        <v>6.85890990677454</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.04769044553765</v>
+        <v>11.82017921998099</v>
       </c>
       <c r="O4">
-        <v>21.36183839125067</v>
+        <v>14.62848032956857</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.32275817636322</v>
+        <v>18.58895686602513</v>
       </c>
       <c r="C5">
-        <v>9.167091483399178</v>
+        <v>11.14918952222048</v>
       </c>
       <c r="D5">
-        <v>4.529793137811009</v>
+        <v>3.798817164809535</v>
       </c>
       <c r="E5">
-        <v>11.36947058010739</v>
+        <v>6.789518195180519</v>
       </c>
       <c r="F5">
-        <v>23.88133300709757</v>
+        <v>18.1629267399401</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>21.39088183560228</v>
+        <v>13.27950254123169</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.746286305179082</v>
+        <v>6.792562949640739</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.06043444482728</v>
+        <v>11.85445111985796</v>
       </c>
       <c r="O5">
-        <v>21.37315355256283</v>
+        <v>14.55833284436681</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.29949746584854</v>
+        <v>18.52281437381698</v>
       </c>
       <c r="C6">
-        <v>9.156403872213788</v>
+        <v>11.12323057055597</v>
       </c>
       <c r="D6">
-        <v>4.528249100109575</v>
+        <v>3.793910296726868</v>
       </c>
       <c r="E6">
-        <v>11.37122388656341</v>
+        <v>6.79124003026467</v>
       </c>
       <c r="F6">
-        <v>23.88062223020135</v>
+        <v>18.13514765042293</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>21.39526337482677</v>
+        <v>13.28317451508869</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.745386281979245</v>
+        <v>6.781535472938673</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.06257771805997</v>
+        <v>11.86019495154857</v>
       </c>
       <c r="O6">
-        <v>21.37512002751469</v>
+        <v>14.54687554838161</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.4603264789444</v>
+        <v>18.97718505976911</v>
       </c>
       <c r="C7">
-        <v>9.230211826494228</v>
+        <v>11.30209101827542</v>
       </c>
       <c r="D7">
-        <v>4.538929964947786</v>
+        <v>3.8278032076267</v>
       </c>
       <c r="E7">
-        <v>11.35921897902846</v>
+        <v>6.779666549963093</v>
       </c>
       <c r="F7">
-        <v>23.88622752105204</v>
+        <v>18.32871805708997</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>21.36529067791629</v>
+        <v>13.25887324853712</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.751789860890664</v>
+        <v>6.858015906100643</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.04786049654992</v>
+        <v>11.8206378628466</v>
       </c>
       <c r="O7">
-        <v>21.36198511618566</v>
+        <v>14.62752151417133</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.15302908782254</v>
+        <v>20.86568251434581</v>
       </c>
       <c r="C8">
-        <v>9.546194401480554</v>
+        <v>12.05780410482259</v>
       </c>
       <c r="D8">
-        <v>4.585135055784682</v>
+        <v>3.973068913273069</v>
       </c>
       <c r="E8">
-        <v>11.31032632289187</v>
+        <v>6.738199373218275</v>
       </c>
       <c r="F8">
-        <v>23.927559619593</v>
+        <v>19.19985489571424</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>21.24393656076738</v>
+        <v>13.18218247536135</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.783889455423536</v>
+        <v>7.193273026511496</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.98685625101462</v>
+        <v>11.653858812668</v>
       </c>
       <c r="O8">
-        <v>21.3167839948365</v>
+        <v>15.01108178999759</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.43750218531819</v>
+        <v>24.15523066777078</v>
       </c>
       <c r="C9">
-        <v>10.12728418958776</v>
+        <v>13.41299047207779</v>
       </c>
       <c r="D9">
-        <v>4.672172816318253</v>
+        <v>4.240908494250946</v>
       </c>
       <c r="E9">
-        <v>11.22912585648768</v>
+        <v>6.693878892618469</v>
       </c>
       <c r="F9">
-        <v>24.06787303428612</v>
+        <v>20.95401766896195</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>21.04537618889174</v>
+        <v>13.15312291908265</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.860340714838914</v>
+        <v>7.836811126487225</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16.88133364027149</v>
+        <v>11.35557688788085</v>
       </c>
       <c r="O9">
-        <v>21.27422101782884</v>
+        <v>15.86166120514844</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.32645871805558</v>
+        <v>26.32469435842287</v>
       </c>
       <c r="C10">
-        <v>10.52785043375078</v>
+        <v>14.32754445989441</v>
       </c>
       <c r="D10">
-        <v>4.733736518958454</v>
+        <v>4.426101121267839</v>
       </c>
       <c r="E10">
-        <v>11.17842023797246</v>
+        <v>6.686216634558084</v>
       </c>
       <c r="F10">
-        <v>24.20656221360478</v>
+        <v>22.25896691086272</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>20.9237096058317</v>
+        <v>13.21633664051171</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.924438123534596</v>
+        <v>8.296775857418698</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16.8123569798488</v>
+        <v>11.15488676239068</v>
       </c>
       <c r="O10">
-        <v>21.27118249664148</v>
+        <v>16.544908756569</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.71729242500078</v>
+        <v>27.25901852368516</v>
       </c>
       <c r="C11">
-        <v>10.7038309110549</v>
+        <v>14.72548197306862</v>
       </c>
       <c r="D11">
-        <v>4.76118318699709</v>
+        <v>4.507620619681001</v>
       </c>
       <c r="E11">
-        <v>11.15729778451193</v>
+        <v>6.688654753422322</v>
       </c>
       <c r="F11">
-        <v>24.27723070043844</v>
+        <v>22.85410498122088</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>20.87365832169453</v>
+        <v>13.26569014709165</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.955246902742152</v>
+        <v>8.502508274654049</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>16.78282440021101</v>
+        <v>11.06784043847133</v>
       </c>
       <c r="O11">
-        <v>21.27594640141346</v>
+        <v>16.8679650411229</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.86322277005391</v>
+        <v>27.60535345138716</v>
       </c>
       <c r="C12">
-        <v>10.76953435833031</v>
+        <v>14.87354169258769</v>
       </c>
       <c r="D12">
-        <v>4.771492574080232</v>
+        <v>4.538082855249503</v>
       </c>
       <c r="E12">
-        <v>11.14957887830403</v>
+        <v>6.690473110711774</v>
       </c>
       <c r="F12">
-        <v>24.30506448100369</v>
+        <v>23.07955112788483</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>20.85546997235783</v>
+        <v>13.28751925109687</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.967144042891482</v>
+        <v>8.579861186205935</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16.77190580671756</v>
+        <v>11.03551353305175</v>
       </c>
       <c r="O12">
-        <v>21.27863415369143</v>
+        <v>16.99202098796567</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.83188787783759</v>
+        <v>27.53109499039945</v>
       </c>
       <c r="C13">
-        <v>10.75542618570624</v>
+        <v>14.84177171225975</v>
       </c>
       <c r="D13">
-        <v>4.76927606019276</v>
+        <v>4.531540614645413</v>
       </c>
       <c r="E13">
-        <v>11.15122883972092</v>
+        <v>6.690040990948462</v>
       </c>
       <c r="F13">
-        <v>24.29902253355199</v>
+        <v>23.03099557473234</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>20.85935308049409</v>
+        <v>13.28267553027111</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.964571640348439</v>
+        <v>8.563227152500225</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>16.77424555538197</v>
+        <v>11.04244701257841</v>
       </c>
       <c r="O13">
-        <v>21.27801600153713</v>
+        <v>16.96522733703915</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.7293403229131</v>
+        <v>27.28766097502915</v>
       </c>
       <c r="C14">
-        <v>10.70925535517284</v>
+        <v>14.73771577888013</v>
       </c>
       <c r="D14">
-        <v>4.762033052268086</v>
+        <v>4.510135013557451</v>
       </c>
       <c r="E14">
-        <v>11.15665713858395</v>
+        <v>6.688786162070412</v>
       </c>
       <c r="F14">
-        <v>24.27949919635149</v>
+        <v>22.87265164617438</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>20.87214660386333</v>
+        <v>13.26742210853701</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.956221107807304</v>
+        <v>8.508883486248507</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>16.78192081820758</v>
+        <v>11.06516799237282</v>
       </c>
       <c r="O14">
-        <v>21.2761498154944</v>
+        <v>16.87813690734776</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.66625410417474</v>
+        <v>27.13757999186911</v>
       </c>
       <c r="C15">
-        <v>10.68085131821089</v>
+        <v>14.67363528556341</v>
       </c>
       <c r="D15">
-        <v>4.757585443963467</v>
+        <v>4.496969978438923</v>
       </c>
       <c r="E15">
-        <v>11.16001856035479</v>
+        <v>6.688135403894992</v>
       </c>
       <c r="F15">
-        <v>24.2676798209404</v>
+        <v>22.7756682909856</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>20.88008273339067</v>
+        <v>13.25849306684429</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.951135978514843</v>
+        <v>8.475523042236015</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>16.78665659985352</v>
+        <v>11.07916881588868</v>
       </c>
       <c r="O15">
-        <v>21.27512180021445</v>
+        <v>16.82501459958323</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.30063337584057</v>
+        <v>26.26258348634944</v>
       </c>
       <c r="C16">
-        <v>10.5162206986866</v>
+        <v>14.30117147789137</v>
       </c>
       <c r="D16">
-        <v>4.731931249644142</v>
+        <v>4.420717416149565</v>
       </c>
       <c r="E16">
-        <v>11.17983977067504</v>
+        <v>6.686180185097769</v>
       </c>
       <c r="F16">
-        <v>24.20209498101464</v>
+        <v>22.22009128504497</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>20.92708743365619</v>
+        <v>13.21354108486918</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.922457334884051</v>
+        <v>8.283255767394881</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>16.81432408348333</v>
+        <v>11.16066297804285</v>
       </c>
       <c r="O16">
-        <v>21.27099485466198</v>
+        <v>16.52403923085381</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.07277410579491</v>
+        <v>25.7123965309926</v>
       </c>
       <c r="C17">
-        <v>10.41359796165364</v>
+        <v>14.06801818093034</v>
       </c>
       <c r="D17">
-        <v>4.716047418964776</v>
+        <v>4.373229214033046</v>
       </c>
       <c r="E17">
-        <v>11.19249743155523</v>
+        <v>6.686528547065477</v>
       </c>
       <c r="F17">
-        <v>24.16379057342115</v>
+        <v>21.87954332355393</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>20.95728209487194</v>
+        <v>13.19136824659705</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.905281911648965</v>
+        <v>8.16436971786667</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>16.8317693736037</v>
+        <v>11.21176178277191</v>
       </c>
       <c r="O17">
-        <v>21.27003750075431</v>
+        <v>16.34250779293804</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.94044561705241</v>
+        <v>25.39098949645012</v>
       </c>
       <c r="C18">
-        <v>10.35398693253349</v>
+        <v>13.93221207095975</v>
       </c>
       <c r="D18">
-        <v>4.706859063473471</v>
+        <v>4.34565951410826</v>
       </c>
       <c r="E18">
-        <v>11.19996073042453</v>
+        <v>6.687283860861822</v>
       </c>
       <c r="F18">
-        <v>24.14247329386912</v>
+        <v>21.68381773762911</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>20.97514749131797</v>
+        <v>13.18054334446151</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.89555884962353</v>
+        <v>8.095661767489554</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>16.84197716057625</v>
+        <v>11.2415507044207</v>
       </c>
       <c r="O18">
-        <v>21.2700654123113</v>
+        <v>16.23925038545979</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.89542728139917</v>
+        <v>25.28131313189361</v>
       </c>
       <c r="C19">
-        <v>10.33370442376301</v>
+        <v>13.88593908858581</v>
       </c>
       <c r="D19">
-        <v>4.703739158687859</v>
+        <v>4.336281467515065</v>
       </c>
       <c r="E19">
-        <v>11.20251909051818</v>
+        <v>6.687633599664615</v>
       </c>
       <c r="F19">
-        <v>24.13537880126194</v>
+        <v>21.61757856718407</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>20.9812818709199</v>
+        <v>13.17720390197203</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.892293746940444</v>
+        <v>8.072343776433129</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>16.84546319638137</v>
+        <v>11.25170441749352</v>
       </c>
       <c r="O19">
-        <v>21.27017421873828</v>
+        <v>16.20448875543775</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.09716246000503</v>
+        <v>25.77147697615203</v>
       </c>
       <c r="C20">
-        <v>10.4245831844603</v>
+        <v>14.09301418836259</v>
       </c>
       <c r="D20">
-        <v>4.71774372961838</v>
+        <v>4.378311000946717</v>
       </c>
       <c r="E20">
-        <v>11.19113106618402</v>
+        <v>6.686433716841883</v>
       </c>
       <c r="F20">
-        <v>24.16779431878082</v>
+        <v>21.91578093728171</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>20.95401623158038</v>
+        <v>13.1935277019738</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.90709418976841</v>
+        <v>8.177059655717965</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>16.82989431792149</v>
+        <v>11.20628084238291</v>
       </c>
       <c r="O20">
-        <v>21.27007953210794</v>
+        <v>16.36171291314488</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.75951808778817</v>
+        <v>27.35936556300665</v>
       </c>
       <c r="C21">
-        <v>10.72284256007666</v>
+        <v>14.76835109281471</v>
       </c>
       <c r="D21">
-        <v>4.764162809984782</v>
+        <v>4.51643352896231</v>
       </c>
       <c r="E21">
-        <v>11.1550551228947</v>
+        <v>6.689130095737708</v>
       </c>
       <c r="F21">
-        <v>24.28520469008949</v>
+        <v>22.91915986848685</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>20.86836804670461</v>
+        <v>13.27181579576999</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.958667661257085</v>
+        <v>8.524860905178516</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>16.77965922673346</v>
+        <v>11.05847682590547</v>
       </c>
       <c r="O21">
-        <v>21.27667397869576</v>
+        <v>16.90367104915615</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.18029522282178</v>
+        <v>28.35362467165418</v>
       </c>
       <c r="C22">
-        <v>10.91229774562537</v>
+        <v>15.19438412075121</v>
       </c>
       <c r="D22">
-        <v>4.794008674159671</v>
+        <v>4.60432392556215</v>
       </c>
       <c r="E22">
-        <v>11.1331078498068</v>
+        <v>6.696130054823056</v>
       </c>
       <c r="F22">
-        <v>24.36818531597034</v>
+        <v>23.57535058660369</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>20.8168525248282</v>
+        <v>13.34136261556071</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.993714188413824</v>
+        <v>8.748926663830858</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>16.74837061769348</v>
+        <v>10.96559719661144</v>
       </c>
       <c r="O22">
-        <v>21.2861345107607</v>
+        <v>17.26789148503402</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.95686265291778</v>
+        <v>27.82692223251676</v>
       </c>
       <c r="C23">
-        <v>10.81169492602823</v>
+        <v>14.96841231895246</v>
       </c>
       <c r="D23">
-        <v>4.778125565317983</v>
+        <v>4.55763762442887</v>
       </c>
       <c r="E23">
-        <v>11.1446722742522</v>
+        <v>6.691900367957085</v>
       </c>
       <c r="F23">
-        <v>24.32333143619526</v>
+        <v>23.22512827375153</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>20.84393804348607</v>
+        <v>13.30250485935352</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.974888897993344</v>
+        <v>8.629649074309057</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16.76492894891686</v>
+        <v>11.01481952574049</v>
       </c>
       <c r="O23">
-        <v>21.28061417753125</v>
+        <v>17.07259525620849</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.08614061578533</v>
+        <v>25.74478259015898</v>
       </c>
       <c r="C24">
-        <v>10.41961866802484</v>
+        <v>14.08171898303891</v>
       </c>
       <c r="D24">
-        <v>4.716977003362747</v>
+        <v>4.376014358957585</v>
       </c>
       <c r="E24">
-        <v>11.1917482198644</v>
+        <v>6.686474864044301</v>
       </c>
       <c r="F24">
-        <v>24.16598202998832</v>
+        <v>21.89939771458046</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>20.95549115219574</v>
+        <v>13.19254543742663</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.906274386982732</v>
+        <v>8.171323648496314</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>16.83074147527696</v>
+        <v>11.20875749551222</v>
       </c>
       <c r="O24">
-        <v>21.27005872832707</v>
+        <v>16.35302682585758</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.09900253994999</v>
+        <v>23.3091220014616</v>
       </c>
       <c r="C25">
-        <v>9.974522196392611</v>
+        <v>13.06040241621703</v>
       </c>
       <c r="D25">
-        <v>4.64903049743976</v>
+        <v>4.170406731391249</v>
       </c>
       <c r="E25">
-        <v>11.24952090739029</v>
+        <v>6.701668531582048</v>
       </c>
       <c r="F25">
-        <v>24.02361631517358</v>
+        <v>20.47585813545552</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>21.09485296442465</v>
+        <v>13.14689764459683</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.838242758349541</v>
+        <v>7.664692862090979</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.90837524040968</v>
+        <v>11.43310321271343</v>
       </c>
       <c r="O25">
-        <v>21.28078502532788</v>
+        <v>15.62117044099028</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_31/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.34919022353484</v>
+        <v>14.84476857074087</v>
       </c>
       <c r="C2">
-        <v>12.25416528577307</v>
+        <v>8.19387817038616</v>
       </c>
       <c r="D2">
-        <v>4.011326362211507</v>
+        <v>5.668940666963104</v>
       </c>
       <c r="E2">
-        <v>6.729382108060242</v>
+        <v>5.834191731404085</v>
       </c>
       <c r="F2">
-        <v>19.43947684851998</v>
+        <v>31.00139970453245</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669784106</v>
+        <v>3.426090000618224</v>
       </c>
       <c r="I2">
-        <v>13.16921961618073</v>
+        <v>4.103835346073802</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>23.05124197659804</v>
       </c>
       <c r="L2">
-        <v>7.283354386559165</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>12.47107524533522</v>
       </c>
       <c r="N2">
-        <v>11.61058767969199</v>
+        <v>6.353919119880135</v>
       </c>
       <c r="O2">
-        <v>15.12171418146835</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>10.76488982883906</v>
+      </c>
+      <c r="P2">
+        <v>15.78677355403753</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.91538461742334</v>
+        <v>13.96614087500767</v>
       </c>
       <c r="C3">
-        <v>11.67517096243648</v>
+        <v>7.622141884370468</v>
       </c>
       <c r="D3">
-        <v>3.899113725011984</v>
+        <v>5.641129407954177</v>
       </c>
       <c r="E3">
-        <v>6.757698356730154</v>
+        <v>5.635070327115345</v>
       </c>
       <c r="F3">
-        <v>18.74833624107812</v>
+        <v>30.12692130926687</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>3.66227646416415</v>
       </c>
       <c r="I3">
-        <v>13.21573282872595</v>
+        <v>4.313151480957099</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>22.68725647313214</v>
       </c>
       <c r="L3">
-        <v>7.021169348069202</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.77427100801452</v>
       </c>
       <c r="N3">
-        <v>11.7382438746434</v>
+        <v>6.153183817560909</v>
       </c>
       <c r="O3">
-        <v>14.80836298832361</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>10.34771602939458</v>
+      </c>
+      <c r="P3">
+        <v>15.84814991097663</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.98243774131467</v>
+        <v>13.39787416457837</v>
       </c>
       <c r="C4">
-        <v>11.30416590228566</v>
+        <v>7.255229587375052</v>
       </c>
       <c r="D4">
-        <v>3.82819752782913</v>
+        <v>5.622749654528605</v>
       </c>
       <c r="E4">
-        <v>6.779536266636546</v>
+        <v>5.508640452683087</v>
       </c>
       <c r="F4">
-        <v>18.33099309647076</v>
+        <v>29.58338638844739</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>3.812337553268213</v>
       </c>
       <c r="I4">
-        <v>13.2586050661598</v>
+        <v>4.446735307828063</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>22.46190778360516</v>
       </c>
       <c r="L4">
-        <v>6.85890990677454</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.32790566075573</v>
       </c>
       <c r="N4">
-        <v>11.82017921998099</v>
+        <v>6.026517951229785</v>
       </c>
       <c r="O4">
-        <v>14.62848032956857</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>10.08334363788375</v>
+      </c>
+      <c r="P4">
+        <v>15.8861934714761</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.58895686602513</v>
+        <v>13.15277193514056</v>
       </c>
       <c r="C5">
-        <v>11.14918952222048</v>
+        <v>7.107095094847554</v>
       </c>
       <c r="D5">
-        <v>3.798817164809535</v>
+        <v>5.614897170195142</v>
       </c>
       <c r="E5">
-        <v>6.789518195180519</v>
+        <v>5.455119157671612</v>
       </c>
       <c r="F5">
-        <v>18.1629267399401</v>
+        <v>29.34646617656485</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>3.875256454994016</v>
       </c>
       <c r="I5">
-        <v>13.27950254123169</v>
+        <v>4.504965255358672</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>22.35911233705257</v>
       </c>
       <c r="L5">
-        <v>6.792562949640739</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>11.13932476505078</v>
       </c>
       <c r="N5">
-        <v>11.85445111985796</v>
+        <v>5.974465245406083</v>
       </c>
       <c r="O5">
-        <v>14.55833284436681</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>9.971801804964315</v>
+      </c>
+      <c r="P5">
+        <v>15.89832171195128</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.52281437381698</v>
+        <v>13.10379746635071</v>
       </c>
       <c r="C6">
-        <v>11.12323057055597</v>
+        <v>7.088870848860269</v>
       </c>
       <c r="D6">
-        <v>3.793910296726868</v>
+        <v>5.613538373206465</v>
       </c>
       <c r="E6">
-        <v>6.79124003026467</v>
+        <v>5.445016856088982</v>
       </c>
       <c r="F6">
-        <v>18.13514765042293</v>
+        <v>29.28989837766763</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>3.886365399589572</v>
       </c>
       <c r="I6">
-        <v>13.28317451508869</v>
+        <v>4.517894881783501</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>22.32910834036482</v>
       </c>
       <c r="L6">
-        <v>6.781535472938673</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>11.10507030947717</v>
       </c>
       <c r="N6">
-        <v>11.86019495154857</v>
+        <v>5.96624487931147</v>
       </c>
       <c r="O6">
-        <v>14.54687554838161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>9.950889087115963</v>
+      </c>
+      <c r="P6">
+        <v>15.89611098708884</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.97718505976911</v>
+        <v>13.37360231160874</v>
       </c>
       <c r="C7">
-        <v>11.30209101827542</v>
+        <v>7.270843544079971</v>
       </c>
       <c r="D7">
-        <v>3.8278032076267</v>
+        <v>5.622584186127932</v>
       </c>
       <c r="E7">
-        <v>6.779666549963093</v>
+        <v>5.504822074370478</v>
       </c>
       <c r="F7">
-        <v>18.32871805708997</v>
+        <v>29.53381805863252</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>3.814751097214126</v>
       </c>
       <c r="I7">
-        <v>13.25887324853712</v>
+        <v>4.455964715542713</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>22.42546376302881</v>
       </c>
       <c r="L7">
-        <v>6.858015906100643</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.3182096404661</v>
       </c>
       <c r="N7">
-        <v>11.8206378628466</v>
+        <v>6.02710051529759</v>
       </c>
       <c r="O7">
-        <v>14.62752151417133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>10.07570775670018</v>
+      </c>
+      <c r="P7">
+        <v>15.87485768612644</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.86568251434581</v>
+        <v>14.52197555451482</v>
       </c>
       <c r="C8">
-        <v>12.05780410482259</v>
+        <v>8.021318511679459</v>
       </c>
       <c r="D8">
-        <v>3.973068913273069</v>
+        <v>5.659708491487386</v>
       </c>
       <c r="E8">
-        <v>6.738199373218275</v>
+        <v>5.762477408410764</v>
       </c>
       <c r="F8">
-        <v>19.19985489571424</v>
+        <v>30.64220617957776</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>3.508480956790728</v>
       </c>
       <c r="I8">
-        <v>13.18218247536135</v>
+        <v>4.185753588714344</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>22.880788250423</v>
       </c>
       <c r="L8">
-        <v>7.193273026511496</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>12.22583827655169</v>
       </c>
       <c r="N8">
-        <v>11.653858812668</v>
+        <v>6.287103385115654</v>
       </c>
       <c r="O8">
-        <v>15.01108178999759</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>10.6150648618164</v>
+      </c>
+      <c r="P8">
+        <v>15.79288871280473</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.15523066777078</v>
+        <v>16.57540498911296</v>
       </c>
       <c r="C9">
-        <v>13.41299047207779</v>
+        <v>9.341286214484112</v>
       </c>
       <c r="D9">
-        <v>4.240908494250946</v>
+        <v>5.721992286329302</v>
       </c>
       <c r="E9">
-        <v>6.693878892618469</v>
+        <v>6.240430632311133</v>
       </c>
       <c r="F9">
-        <v>20.95401766896195</v>
+        <v>32.83208481942417</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>2.944184688149301</v>
       </c>
       <c r="I9">
-        <v>13.15312291908265</v>
+        <v>3.681239992794187</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>23.81715199413692</v>
       </c>
       <c r="L9">
-        <v>7.836811126487225</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>13.92901236146372</v>
       </c>
       <c r="N9">
-        <v>11.35557688788085</v>
+        <v>6.766146132112065</v>
       </c>
       <c r="O9">
-        <v>15.86166120514844</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>11.61316163782808</v>
+      </c>
+      <c r="P9">
+        <v>15.65518797054532</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.32469435842287</v>
+        <v>17.87069880304128</v>
       </c>
       <c r="C10">
-        <v>14.32754445989441</v>
+        <v>10.27247752296873</v>
       </c>
       <c r="D10">
-        <v>4.426101121267839</v>
+        <v>5.764304247312915</v>
       </c>
       <c r="E10">
-        <v>6.686216634558084</v>
+        <v>6.499116562437244</v>
       </c>
       <c r="F10">
-        <v>22.25896691086272</v>
+        <v>34.17416304026025</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>2.58261300986832</v>
       </c>
       <c r="I10">
-        <v>13.21633664051171</v>
+        <v>3.346624777904747</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>24.32850362428212</v>
       </c>
       <c r="L10">
-        <v>8.296775857418698</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>15.15646856715114</v>
       </c>
       <c r="N10">
-        <v>11.15488676239068</v>
+        <v>6.995190707299241</v>
       </c>
       <c r="O10">
-        <v>16.544908756569</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>12.19949760674129</v>
+      </c>
+      <c r="P10">
+        <v>15.49788686119055</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.25901852368516</v>
+        <v>17.89186248951067</v>
       </c>
       <c r="C11">
-        <v>14.72548197306862</v>
+        <v>10.93649625256496</v>
       </c>
       <c r="D11">
-        <v>4.507620619681001</v>
+        <v>5.830520712017598</v>
       </c>
       <c r="E11">
-        <v>6.688654753422322</v>
+        <v>6.182717588639186</v>
       </c>
       <c r="F11">
-        <v>22.85410498122088</v>
+        <v>33.01971729339517</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>3.346671026730863</v>
       </c>
       <c r="I11">
-        <v>13.26569014709165</v>
+        <v>3.280785961621923</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>23.24893863496556</v>
       </c>
       <c r="L11">
-        <v>8.502508274654049</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>15.43482039094347</v>
       </c>
       <c r="N11">
-        <v>11.06784043847133</v>
+        <v>6.241934683589944</v>
       </c>
       <c r="O11">
-        <v>16.8679650411229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>11.61830270017524</v>
+      </c>
+      <c r="P11">
+        <v>14.97557994106838</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.60535345138716</v>
+        <v>17.66465064859463</v>
       </c>
       <c r="C12">
-        <v>14.87354169258769</v>
+        <v>11.28869163892583</v>
       </c>
       <c r="D12">
-        <v>4.538082855249503</v>
+        <v>5.905502116621862</v>
       </c>
       <c r="E12">
-        <v>6.690473110711774</v>
+        <v>6.151026457403487</v>
       </c>
       <c r="F12">
-        <v>23.07955112788483</v>
+        <v>31.80658410457281</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>4.570075261486344</v>
       </c>
       <c r="I12">
-        <v>13.28751925109687</v>
+        <v>3.273939739444665</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>22.27915459422702</v>
       </c>
       <c r="L12">
-        <v>8.579861186205935</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>15.42812798227308</v>
       </c>
       <c r="N12">
-        <v>11.03551353305175</v>
+        <v>5.626692039640105</v>
       </c>
       <c r="O12">
-        <v>16.99202098796567</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>11.00842386611474</v>
+      </c>
+      <c r="P12">
+        <v>14.61144658785726</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.53109499039945</v>
+        <v>17.20006228805179</v>
       </c>
       <c r="C13">
-        <v>14.84177171225975</v>
+        <v>11.45361765262707</v>
       </c>
       <c r="D13">
-        <v>4.531540614645413</v>
+        <v>5.988875919988772</v>
       </c>
       <c r="E13">
-        <v>6.690040990948462</v>
+        <v>6.32877424176553</v>
       </c>
       <c r="F13">
-        <v>23.03099557473234</v>
+        <v>30.38697039044918</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>5.914557433554387</v>
       </c>
       <c r="I13">
-        <v>13.28267553027111</v>
+        <v>3.326466202409789</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>21.27856856824868</v>
       </c>
       <c r="L13">
-        <v>8.563227152500225</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>15.19269736490961</v>
       </c>
       <c r="N13">
-        <v>11.04244701257841</v>
+        <v>5.101081802572581</v>
       </c>
       <c r="O13">
-        <v>16.96522733703915</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>10.32023978025149</v>
+      </c>
+      <c r="P13">
+        <v>14.33242994247413</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.28766097502915</v>
+        <v>16.75587386003282</v>
       </c>
       <c r="C14">
-        <v>14.73771577888013</v>
+        <v>11.49174990234983</v>
       </c>
       <c r="D14">
-        <v>4.510135013557451</v>
+        <v>6.053632839352536</v>
       </c>
       <c r="E14">
-        <v>6.688786162070412</v>
+        <v>6.574331146381453</v>
       </c>
       <c r="F14">
-        <v>22.87265164617438</v>
+        <v>29.27862044725472</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>6.890573952879805</v>
       </c>
       <c r="I14">
-        <v>13.26742210853701</v>
+        <v>3.392587245923643</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>20.55816221356812</v>
       </c>
       <c r="L14">
-        <v>8.508883486248507</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>14.91953263584364</v>
       </c>
       <c r="N14">
-        <v>11.06516799237282</v>
+        <v>4.805197061250208</v>
       </c>
       <c r="O14">
-        <v>16.87813690734776</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>9.797595490151345</v>
+      </c>
+      <c r="P14">
+        <v>14.17941228498</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.13757999186911</v>
+        <v>16.58912440187836</v>
       </c>
       <c r="C15">
-        <v>14.67363528556341</v>
+        <v>11.46668848556714</v>
       </c>
       <c r="D15">
-        <v>4.496969978438923</v>
+        <v>6.068504411077913</v>
       </c>
       <c r="E15">
-        <v>6.688135403894992</v>
+        <v>6.638086267016432</v>
       </c>
       <c r="F15">
-        <v>22.7756682909856</v>
+        <v>28.95013112587413</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.122028079616157</v>
       </c>
       <c r="I15">
-        <v>13.25849306684429</v>
+        <v>3.426145193003544</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>20.36576877527964</v>
       </c>
       <c r="L15">
-        <v>8.475523042236015</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.80062509710972</v>
       </c>
       <c r="N15">
-        <v>11.07916881588868</v>
+        <v>4.74338135342003</v>
       </c>
       <c r="O15">
-        <v>16.82501459958323</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>9.651536795469298</v>
+      </c>
+      <c r="P15">
+        <v>14.15445919041804</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.26258348634944</v>
+        <v>16.10382323978908</v>
       </c>
       <c r="C16">
-        <v>14.30117147789137</v>
+        <v>11.07819890794893</v>
       </c>
       <c r="D16">
-        <v>4.420717416149565</v>
+        <v>6.029225580614438</v>
       </c>
       <c r="E16">
-        <v>6.686180185097769</v>
+        <v>6.484808050108393</v>
       </c>
       <c r="F16">
-        <v>22.22009128504497</v>
+        <v>28.58009004945549</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>6.959658644524848</v>
       </c>
       <c r="I16">
-        <v>13.21354108486918</v>
+        <v>3.563368849146098</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>20.31516826522367</v>
       </c>
       <c r="L16">
-        <v>8.283255767394881</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>14.32381830605944</v>
       </c>
       <c r="N16">
-        <v>11.16066297804285</v>
+        <v>4.735569990281819</v>
       </c>
       <c r="O16">
-        <v>16.52403923085381</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>9.510778848652075</v>
+      </c>
+      <c r="P16">
+        <v>14.27393502646969</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.7123965309926</v>
+        <v>15.97234566325107</v>
       </c>
       <c r="C17">
-        <v>14.06801818093034</v>
+        <v>10.75177483508568</v>
       </c>
       <c r="D17">
-        <v>4.373229214033046</v>
+        <v>5.963141524595885</v>
       </c>
       <c r="E17">
-        <v>6.686528547065477</v>
+        <v>6.207427257187896</v>
       </c>
       <c r="F17">
-        <v>21.87954332355393</v>
+        <v>28.90057995770423</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>6.293624494218032</v>
       </c>
       <c r="I17">
-        <v>13.19136824659705</v>
+        <v>3.634459508953051</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>20.65968028266583</v>
       </c>
       <c r="L17">
-        <v>8.16436971786667</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>14.10280466356361</v>
       </c>
       <c r="N17">
-        <v>11.21176178277191</v>
+        <v>4.873179974258536</v>
       </c>
       <c r="O17">
-        <v>16.34250779293804</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>9.687030089000622</v>
+      </c>
+      <c r="P17">
+        <v>14.44313252919174</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.39098949645012</v>
+        <v>16.1506829181722</v>
       </c>
       <c r="C18">
-        <v>13.93221207095975</v>
+        <v>10.43380428110603</v>
       </c>
       <c r="D18">
-        <v>4.34565951410826</v>
+        <v>5.876749150133062</v>
       </c>
       <c r="E18">
-        <v>6.687283860861822</v>
+        <v>5.920021378313576</v>
       </c>
       <c r="F18">
-        <v>21.68381773762911</v>
+        <v>29.88260473348885</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>5.165284038387594</v>
       </c>
       <c r="I18">
-        <v>13.18054334446151</v>
+        <v>3.644436932964039</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>21.41618889789901</v>
       </c>
       <c r="L18">
-        <v>8.095661767489554</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>14.08946746101716</v>
       </c>
       <c r="N18">
-        <v>11.2415507044207</v>
+        <v>5.227002472030922</v>
       </c>
       <c r="O18">
-        <v>16.23925038545979</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>10.16396546337543</v>
+      </c>
+      <c r="P18">
+        <v>14.69797883921696</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.28131313189361</v>
+        <v>16.52827459250234</v>
       </c>
       <c r="C19">
-        <v>13.88593908858581</v>
+        <v>10.17815057258212</v>
       </c>
       <c r="D19">
-        <v>4.336281467515065</v>
+        <v>5.803476956800995</v>
       </c>
       <c r="E19">
-        <v>6.687633599664615</v>
+        <v>5.865776009642391</v>
       </c>
       <c r="F19">
-        <v>21.61757856718407</v>
+        <v>31.23929316089652</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>3.893816642455852</v>
       </c>
       <c r="I19">
-        <v>13.17720390197203</v>
+        <v>3.618584195430626</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>22.40509080573468</v>
       </c>
       <c r="L19">
-        <v>8.072343776433129</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>14.23387872350249</v>
       </c>
       <c r="N19">
-        <v>11.25170441749352</v>
+        <v>5.815600550582787</v>
       </c>
       <c r="O19">
-        <v>16.20448875543775</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>10.83758186981628</v>
+      </c>
+      <c r="P19">
+        <v>15.01323993891656</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.77147697615203</v>
+        <v>17.48543942465439</v>
       </c>
       <c r="C20">
-        <v>14.09301418836259</v>
+        <v>10.07546274996256</v>
       </c>
       <c r="D20">
-        <v>4.378311000946717</v>
+        <v>5.75495887622983</v>
       </c>
       <c r="E20">
-        <v>6.686433716841883</v>
+        <v>6.420355083576894</v>
       </c>
       <c r="F20">
-        <v>21.91578093728171</v>
+        <v>33.68955170888383</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>2.680350523587795</v>
       </c>
       <c r="I20">
-        <v>13.1935277019738</v>
+        <v>3.462137187050012</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>24.08820786970001</v>
       </c>
       <c r="L20">
-        <v>8.177059655717965</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>14.8241184213638</v>
       </c>
       <c r="N20">
-        <v>11.20628084238291</v>
+        <v>6.934834302814502</v>
       </c>
       <c r="O20">
-        <v>16.36171291314488</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>12.02776666164277</v>
+      </c>
+      <c r="P20">
+        <v>15.50291793919783</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.35936556300665</v>
+        <v>18.53962817673618</v>
       </c>
       <c r="C21">
-        <v>14.76835109281471</v>
+        <v>10.71316616357142</v>
       </c>
       <c r="D21">
-        <v>4.51643352896231</v>
+        <v>5.781225092717711</v>
       </c>
       <c r="E21">
-        <v>6.689130095737708</v>
+        <v>6.72786978174666</v>
       </c>
       <c r="F21">
-        <v>22.91915986848685</v>
+        <v>35.03647567939331</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>2.363063012488358</v>
       </c>
       <c r="I21">
-        <v>13.27181579576999</v>
+        <v>3.19499849738008</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>24.72631883150958</v>
       </c>
       <c r="L21">
-        <v>8.524860905178516</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>15.77030666178281</v>
       </c>
       <c r="N21">
-        <v>11.05847682590547</v>
+        <v>7.265592765832269</v>
       </c>
       <c r="O21">
-        <v>16.90367104915615</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>12.61565919209613</v>
+      </c>
+      <c r="P21">
+        <v>15.47176231548193</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.35362467165418</v>
+        <v>19.19057103729073</v>
       </c>
       <c r="C22">
-        <v>15.19438412075121</v>
+        <v>11.11677783232614</v>
       </c>
       <c r="D22">
-        <v>4.60432392556215</v>
+        <v>5.798064194524087</v>
       </c>
       <c r="E22">
-        <v>6.696130054823056</v>
+        <v>6.891709765935381</v>
       </c>
       <c r="F22">
-        <v>23.57535058660369</v>
+        <v>35.85334803644979</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>2.1720531861405</v>
       </c>
       <c r="I22">
-        <v>13.34136261556071</v>
+        <v>3.016136421803631</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>25.10503364536041</v>
       </c>
       <c r="L22">
-        <v>8.748926663830858</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>16.35559728633018</v>
       </c>
       <c r="N22">
-        <v>10.96559719661144</v>
+        <v>7.422702374698402</v>
       </c>
       <c r="O22">
-        <v>17.26789148503402</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>12.94673698503216</v>
+      </c>
+      <c r="P22">
+        <v>15.43908977980802</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.82692223251676</v>
+        <v>18.86408137192874</v>
       </c>
       <c r="C23">
-        <v>14.96841231895246</v>
+        <v>10.88802906846614</v>
       </c>
       <c r="D23">
-        <v>4.55763762442887</v>
+        <v>5.788663972150316</v>
       </c>
       <c r="E23">
-        <v>6.691900367957085</v>
+        <v>6.807542543900158</v>
       </c>
       <c r="F23">
-        <v>23.22512827375153</v>
+        <v>35.46443979177531</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>2.272124918016952</v>
       </c>
       <c r="I23">
-        <v>13.30250485935352</v>
+        <v>3.099667638571999</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>24.94023678416526</v>
       </c>
       <c r="L23">
-        <v>8.629649074309057</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>16.05194815162689</v>
       </c>
       <c r="N23">
-        <v>11.01481952574049</v>
+        <v>7.337841625846704</v>
       </c>
       <c r="O23">
-        <v>17.07259525620849</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>12.77684564911875</v>
+      </c>
+      <c r="P23">
+        <v>15.46927058201879</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.74478259015898</v>
+        <v>17.54580519486286</v>
       </c>
       <c r="C24">
-        <v>14.08171898303891</v>
+        <v>10.0186412849092</v>
       </c>
       <c r="D24">
-        <v>4.376014358957585</v>
+        <v>5.751614763234817</v>
       </c>
       <c r="E24">
-        <v>6.686474864044301</v>
+        <v>6.478104974245951</v>
       </c>
       <c r="F24">
-        <v>21.89939771458046</v>
+        <v>33.89754755490159</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>2.660562689231132</v>
       </c>
       <c r="I24">
-        <v>13.19254543742663</v>
+        <v>3.442593718864666</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>24.25269029173376</v>
       </c>
       <c r="L24">
-        <v>8.171323648496314</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>14.84148486783032</v>
       </c>
       <c r="N24">
-        <v>11.20875749551222</v>
+        <v>7.010817223524373</v>
       </c>
       <c r="O24">
-        <v>16.35302682585758</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>12.10481334868672</v>
+      </c>
+      <c r="P24">
+        <v>15.56472890297481</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.3091220014616</v>
+        <v>16.01300319257244</v>
       </c>
       <c r="C25">
-        <v>13.06040241621703</v>
+        <v>9.023173357597955</v>
       </c>
       <c r="D25">
-        <v>4.170406731391249</v>
+        <v>5.706670807191228</v>
       </c>
       <c r="E25">
-        <v>6.701668531582048</v>
+        <v>6.109491937729306</v>
       </c>
       <c r="F25">
-        <v>20.47585813545552</v>
+        <v>32.17101474845742</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>3.095395198177632</v>
       </c>
       <c r="I25">
-        <v>13.14689764459683</v>
+        <v>3.829095178204703</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>23.50610219653441</v>
       </c>
       <c r="L25">
-        <v>7.664692862090979</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>13.42733007879509</v>
       </c>
       <c r="N25">
-        <v>11.43310321271343</v>
+        <v>6.642017745651335</v>
       </c>
       <c r="O25">
-        <v>15.62117044099028</v>
+        <v>11.34126584691434</v>
+      </c>
+      <c r="P25">
+        <v>15.67207100732523</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_31/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.84476857074087</v>
+        <v>13.92781099649062</v>
       </c>
       <c r="C2">
-        <v>8.19387817038616</v>
+        <v>8.703170213110008</v>
       </c>
       <c r="D2">
-        <v>5.668940666963104</v>
+        <v>5.518640345034791</v>
       </c>
       <c r="E2">
-        <v>5.834191731404085</v>
+        <v>5.821433723560539</v>
       </c>
       <c r="F2">
-        <v>31.00139970453245</v>
+        <v>28.73832761002381</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>3.426090000618224</v>
+        <v>3.217652978451783</v>
       </c>
       <c r="I2">
-        <v>4.103835346073802</v>
+        <v>3.847890399512217</v>
       </c>
       <c r="J2">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K2">
-        <v>23.05124197659804</v>
+        <v>21.09758062906693</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>16.52862342068511</v>
       </c>
       <c r="M2">
-        <v>12.47107524533522</v>
+        <v>14.79682830326779</v>
       </c>
       <c r="N2">
-        <v>6.353919119880135</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>10.76488982883906</v>
+        <v>12.14985791170919</v>
       </c>
       <c r="P2">
-        <v>15.78677355403753</v>
+        <v>6.591511905936692</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>10.47325310410246</v>
+      </c>
+      <c r="R2">
+        <v>15.06617146005674</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.96614087500767</v>
+        <v>13.11298464008329</v>
       </c>
       <c r="C3">
-        <v>7.622141884370468</v>
+        <v>8.057825355755959</v>
       </c>
       <c r="D3">
-        <v>5.641129407954177</v>
+        <v>5.472472143543414</v>
       </c>
       <c r="E3">
-        <v>5.635070327115345</v>
+        <v>5.641662803719543</v>
       </c>
       <c r="F3">
-        <v>30.12692130926687</v>
+        <v>28.05467829840334</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3.66227646416415</v>
+        <v>3.434058493227887</v>
       </c>
       <c r="I3">
-        <v>4.313151480957099</v>
+        <v>4.032709333842844</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>22.68725647313214</v>
+        <v>20.88356911725979</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>16.47683586305915</v>
       </c>
       <c r="M3">
-        <v>11.77427100801452</v>
+        <v>14.54817242444644</v>
       </c>
       <c r="N3">
-        <v>6.153183817560909</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>10.34771602939458</v>
+        <v>11.47136322076817</v>
       </c>
       <c r="P3">
-        <v>15.84814991097663</v>
+        <v>6.396039607125586</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>10.07892476179435</v>
+      </c>
+      <c r="R3">
+        <v>15.17527118427038</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.39787416457837</v>
+        <v>12.58440486283461</v>
       </c>
       <c r="C4">
-        <v>7.255229587375052</v>
+        <v>7.642756526263417</v>
       </c>
       <c r="D4">
-        <v>5.622749654528605</v>
+        <v>5.44313581101661</v>
       </c>
       <c r="E4">
-        <v>5.508640452683087</v>
+        <v>5.527535237691111</v>
       </c>
       <c r="F4">
-        <v>29.58338638844739</v>
+        <v>27.63090314352797</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.812337553268213</v>
+        <v>3.571667380966669</v>
       </c>
       <c r="I4">
-        <v>4.446735307828063</v>
+        <v>4.151015227029071</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>22.46190778360516</v>
+        <v>20.7509678857864</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>16.43914262194015</v>
       </c>
       <c r="M4">
-        <v>11.32790566075573</v>
+        <v>14.41027111954029</v>
       </c>
       <c r="N4">
-        <v>6.026517951229785</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>10.08334363788375</v>
+        <v>11.03586259972063</v>
       </c>
       <c r="P4">
-        <v>15.8861934714761</v>
+        <v>6.273074406919223</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>9.828828153983975</v>
+      </c>
+      <c r="R4">
+        <v>15.24264098691907</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.15277193514056</v>
+        <v>12.35586977041761</v>
       </c>
       <c r="C5">
-        <v>7.107095094847554</v>
+        <v>7.474240944919648</v>
       </c>
       <c r="D5">
-        <v>5.614897170195142</v>
+        <v>5.431263885964527</v>
       </c>
       <c r="E5">
-        <v>5.455119157671612</v>
+        <v>5.479231733571474</v>
       </c>
       <c r="F5">
-        <v>29.34646617656485</v>
+        <v>27.44435163890347</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3.875256454994016</v>
+        <v>3.629400913407829</v>
       </c>
       <c r="I5">
-        <v>4.504965255358672</v>
+        <v>4.203332303076475</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>22.35911233705257</v>
+        <v>20.68715233777889</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>16.4140264768299</v>
       </c>
       <c r="M5">
-        <v>11.13932476505078</v>
+        <v>14.35182306160184</v>
       </c>
       <c r="N5">
-        <v>5.974465245406083</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>9.971801804964315</v>
+        <v>10.85170839548898</v>
       </c>
       <c r="P5">
-        <v>15.89832171195128</v>
+        <v>6.222619985079513</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>9.72327008927043</v>
+      </c>
+      <c r="R5">
+        <v>15.26737770883982</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.10379746635071</v>
+        <v>12.31002721787064</v>
       </c>
       <c r="C6">
-        <v>7.088870848860269</v>
+        <v>7.452572037506028</v>
       </c>
       <c r="D6">
-        <v>5.613538373206465</v>
+        <v>5.429691644790234</v>
       </c>
       <c r="E6">
-        <v>5.445016856088982</v>
+        <v>5.470124365415707</v>
       </c>
       <c r="F6">
-        <v>29.28989837766763</v>
+        <v>27.39741900302637</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3.886365399589572</v>
+        <v>3.6396065749394</v>
       </c>
       <c r="I6">
-        <v>4.517894881783501</v>
+        <v>4.215773818777818</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>22.32910834036482</v>
+        <v>20.66493573562296</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>16.39967832650504</v>
       </c>
       <c r="M6">
-        <v>11.10507030947717</v>
+        <v>14.33487884305463</v>
       </c>
       <c r="N6">
-        <v>5.96624487931147</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>9.950889087115963</v>
+        <v>10.81831829765091</v>
       </c>
       <c r="P6">
-        <v>15.89611098708884</v>
+        <v>6.214633930440734</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>9.703492155288028</v>
+      </c>
+      <c r="R6">
+        <v>15.2680515685724</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.37360231160874</v>
+        <v>12.56138452306156</v>
       </c>
       <c r="C7">
-        <v>7.270843544079971</v>
+        <v>7.658046878772049</v>
       </c>
       <c r="D7">
-        <v>5.622584186127932</v>
+        <v>5.444162424950734</v>
       </c>
       <c r="E7">
-        <v>5.504822074370478</v>
+        <v>5.524119575898503</v>
       </c>
       <c r="F7">
-        <v>29.53381805863252</v>
+        <v>27.58537687834902</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3.814751097214126</v>
+        <v>3.573908630438204</v>
       </c>
       <c r="I7">
-        <v>4.455964715542713</v>
+        <v>4.16146884281435</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>22.42546376302881</v>
+        <v>20.71863165418698</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>16.41180609908604</v>
       </c>
       <c r="M7">
-        <v>11.3182096404661</v>
+        <v>14.38877633403459</v>
       </c>
       <c r="N7">
-        <v>6.02710051529759</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>10.07570775670018</v>
+        <v>11.02659774547271</v>
       </c>
       <c r="P7">
-        <v>15.87485768612644</v>
+        <v>6.273576628782473</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>9.821647516306054</v>
+      </c>
+      <c r="R7">
+        <v>15.2336653188468</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.52197555451482</v>
+        <v>13.62822672432509</v>
       </c>
       <c r="C8">
-        <v>8.021318511679459</v>
+        <v>8.505738751581188</v>
       </c>
       <c r="D8">
-        <v>5.659708491487386</v>
+        <v>5.504737097426817</v>
       </c>
       <c r="E8">
-        <v>5.762477408410764</v>
+        <v>5.756737504373976</v>
       </c>
       <c r="F8">
-        <v>30.64220617957776</v>
+        <v>28.44863886888205</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3.508480956790728</v>
+        <v>3.293144880339137</v>
       </c>
       <c r="I8">
-        <v>4.185753588714344</v>
+        <v>3.923078703837623</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>22.880788250423</v>
+        <v>20.98338775786748</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>16.47851990628467</v>
       </c>
       <c r="M8">
-        <v>12.22583827655169</v>
+        <v>14.67980604415655</v>
       </c>
       <c r="N8">
-        <v>6.287103385115654</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>10.6150648618164</v>
+        <v>11.91148127278258</v>
       </c>
       <c r="P8">
-        <v>15.79288871280473</v>
+        <v>6.526298297408547</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>10.33172998820025</v>
+      </c>
+      <c r="R8">
+        <v>15.09176982695351</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.57540498911296</v>
+        <v>15.52547181786108</v>
       </c>
       <c r="C9">
-        <v>9.341286214484112</v>
+        <v>9.993063167352084</v>
       </c>
       <c r="D9">
-        <v>5.721992286329302</v>
+        <v>5.613170764411842</v>
       </c>
       <c r="E9">
-        <v>6.240430632311133</v>
+        <v>6.18837384708745</v>
       </c>
       <c r="F9">
-        <v>32.83208481942417</v>
+        <v>30.17650827868919</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2.944184688149301</v>
+        <v>2.776792542653381</v>
       </c>
       <c r="I9">
-        <v>3.681239992794187</v>
+        <v>3.477177182492288</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>23.81715199413692</v>
+        <v>21.54707304607123</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>16.60729913596794</v>
       </c>
       <c r="M9">
-        <v>13.92901236146372</v>
+        <v>15.39976832610732</v>
       </c>
       <c r="N9">
-        <v>6.766146132112065</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>11.61316163782808</v>
+        <v>13.67938627026529</v>
       </c>
       <c r="P9">
-        <v>15.65518797054532</v>
+        <v>6.994750952385067</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>11.27407250607561</v>
+      </c>
+      <c r="R9">
+        <v>14.83224365491248</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.87069880304128</v>
+        <v>16.72209072210783</v>
       </c>
       <c r="C10">
-        <v>10.27247752296873</v>
+        <v>11.02555716559019</v>
       </c>
       <c r="D10">
-        <v>5.764304247312915</v>
+        <v>5.697798218128926</v>
       </c>
       <c r="E10">
-        <v>6.499116562437244</v>
+        <v>6.423252847754704</v>
       </c>
       <c r="F10">
-        <v>34.17416304026025</v>
+        <v>31.2289195057057</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2.58261300986832</v>
+        <v>2.448680980472485</v>
       </c>
       <c r="I10">
-        <v>3.346624777904747</v>
+        <v>3.184571599520817</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>24.32850362428212</v>
+        <v>21.82095789937313</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>16.57384904904469</v>
       </c>
       <c r="M10">
-        <v>15.15646856715114</v>
+        <v>15.88410038411205</v>
       </c>
       <c r="N10">
-        <v>6.995190707299241</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>12.19949760674129</v>
+        <v>14.85976473940351</v>
       </c>
       <c r="P10">
-        <v>15.49788686119055</v>
+        <v>7.216913619799784</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>11.8250126928303</v>
+      </c>
+      <c r="R10">
+        <v>14.6016998036649</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.89186248951067</v>
+        <v>16.79405644039878</v>
       </c>
       <c r="C11">
-        <v>10.93649625256496</v>
+        <v>11.66887808033976</v>
       </c>
       <c r="D11">
-        <v>5.830520712017598</v>
+        <v>5.833690280053271</v>
       </c>
       <c r="E11">
-        <v>6.182717588639186</v>
+        <v>6.168660239419096</v>
       </c>
       <c r="F11">
-        <v>33.01971729339517</v>
+        <v>30.20017475747911</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3.346671026730863</v>
+        <v>3.248982658472555</v>
       </c>
       <c r="I11">
-        <v>3.280785961621923</v>
+        <v>3.130053620012557</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806006</v>
       </c>
       <c r="K11">
-        <v>23.24893863496556</v>
+        <v>20.87689002712957</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>15.76210764129292</v>
       </c>
       <c r="M11">
-        <v>15.43482039094347</v>
+        <v>15.28806930594934</v>
       </c>
       <c r="N11">
-        <v>6.241934683589944</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>11.61830270017524</v>
+        <v>15.15188164915778</v>
       </c>
       <c r="P11">
-        <v>14.97557994106838</v>
+        <v>6.45077403085774</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>11.2603637163869</v>
+      </c>
+      <c r="R11">
+        <v>14.18488124244277</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.66465064859463</v>
+        <v>16.63006632976811</v>
       </c>
       <c r="C12">
-        <v>11.28869163892583</v>
+        <v>11.98164276500151</v>
       </c>
       <c r="D12">
-        <v>5.905502116621862</v>
+        <v>5.94940116539391</v>
       </c>
       <c r="E12">
-        <v>6.151026457403487</v>
+        <v>6.19179023523919</v>
       </c>
       <c r="F12">
-        <v>31.80658410457281</v>
+        <v>29.15080552988943</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.570075261486344</v>
+        <v>4.497239678551216</v>
       </c>
       <c r="I12">
-        <v>3.273939739444665</v>
+        <v>3.121892494032953</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>22.27915459422702</v>
+        <v>20.06846833759584</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>15.13108411143041</v>
       </c>
       <c r="M12">
-        <v>15.42812798227308</v>
+        <v>14.70524124512348</v>
       </c>
       <c r="N12">
-        <v>5.626692039640105</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>11.00842386611474</v>
+        <v>15.16607100060651</v>
       </c>
       <c r="P12">
-        <v>14.61144658785726</v>
+        <v>5.823624347470433</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>10.67169172943632</v>
+      </c>
+      <c r="R12">
+        <v>13.91967806371166</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.20006228805179</v>
+        <v>16.24551396386607</v>
       </c>
       <c r="C13">
-        <v>11.45361765262707</v>
+        <v>12.08881394523407</v>
       </c>
       <c r="D13">
-        <v>5.988875919988772</v>
+        <v>6.055566124832672</v>
       </c>
       <c r="E13">
-        <v>6.32877424176553</v>
+        <v>6.415536576755438</v>
       </c>
       <c r="F13">
-        <v>30.38697039044918</v>
+        <v>27.94234677306792</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.914557433554387</v>
+        <v>5.853670356019125</v>
       </c>
       <c r="I13">
-        <v>3.326466202409789</v>
+        <v>3.165708119417504</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>21.27856856824868</v>
+        <v>19.26612001006679</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>14.55477453673625</v>
       </c>
       <c r="M13">
-        <v>15.19269736490961</v>
+        <v>14.06355361957613</v>
       </c>
       <c r="N13">
-        <v>5.101081802572581</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>10.32023978025149</v>
+        <v>14.95953133428678</v>
       </c>
       <c r="P13">
-        <v>14.33242994247413</v>
+        <v>5.285881920685222</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>10.01040556610056</v>
+      </c>
+      <c r="R13">
+        <v>13.74166804608836</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.75587386003282</v>
+        <v>15.86624966387778</v>
       </c>
       <c r="C14">
-        <v>11.49174990234983</v>
+        <v>12.07701825866808</v>
       </c>
       <c r="D14">
-        <v>6.053632839352536</v>
+        <v>6.127568528232541</v>
       </c>
       <c r="E14">
-        <v>6.574331146381453</v>
+        <v>6.685473505993045</v>
       </c>
       <c r="F14">
-        <v>29.27862044725472</v>
+        <v>27.00580225257918</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.890573952879805</v>
+        <v>6.834110564057375</v>
       </c>
       <c r="I14">
-        <v>3.392587245923643</v>
+        <v>3.222996361897627</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>20.55816221356812</v>
+        <v>18.70232074781794</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>14.16821798809587</v>
       </c>
       <c r="M14">
-        <v>14.91953263584364</v>
+        <v>13.58689209972279</v>
       </c>
       <c r="N14">
-        <v>4.805197061250208</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>9.797595490151345</v>
+        <v>14.71069735543071</v>
       </c>
       <c r="P14">
-        <v>14.17941228498</v>
+        <v>4.980873615832547</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>9.509379939804679</v>
+      </c>
+      <c r="R14">
+        <v>13.65864272739393</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.58912440187836</v>
+        <v>15.7193581233514</v>
       </c>
       <c r="C15">
-        <v>11.46668848556714</v>
+        <v>12.03563956836229</v>
       </c>
       <c r="D15">
-        <v>6.068504411077913</v>
+        <v>6.141606863468328</v>
       </c>
       <c r="E15">
-        <v>6.638086267016432</v>
+        <v>6.754102275305747</v>
       </c>
       <c r="F15">
-        <v>28.95013112587413</v>
+        <v>26.73049067706369</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.122028079616157</v>
+        <v>7.065597606256688</v>
       </c>
       <c r="I15">
-        <v>3.426145193003544</v>
+        <v>3.253477863344222</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702216713</v>
       </c>
       <c r="K15">
-        <v>20.36576877527964</v>
+        <v>18.55683094004465</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>14.07514333429293</v>
       </c>
       <c r="M15">
-        <v>14.80062509710972</v>
+        <v>13.45390227771616</v>
       </c>
       <c r="N15">
-        <v>4.74338135342003</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>9.651536795469298</v>
+        <v>14.59966708000192</v>
       </c>
       <c r="P15">
-        <v>14.15445919041804</v>
+        <v>4.917356457189496</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.369885377637148</v>
+      </c>
+      <c r="R15">
+        <v>13.65179039688001</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.10382323978908</v>
+        <v>15.2655629613162</v>
       </c>
       <c r="C16">
-        <v>11.07819890794893</v>
+        <v>11.6120366697202</v>
       </c>
       <c r="D16">
-        <v>6.029225580614438</v>
+        <v>6.079405350917849</v>
       </c>
       <c r="E16">
-        <v>6.484808050108393</v>
+        <v>6.600568654867664</v>
       </c>
       <c r="F16">
-        <v>28.58009004945549</v>
+        <v>26.45144511175151</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.959658644524848</v>
+        <v>6.89355684952236</v>
       </c>
       <c r="I16">
-        <v>3.563368849146098</v>
+        <v>3.375486247370495</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>20.31516826522367</v>
+        <v>18.57312517563977</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>14.15398368035377</v>
       </c>
       <c r="M16">
-        <v>14.32381830605944</v>
+        <v>13.37092162288202</v>
       </c>
       <c r="N16">
-        <v>4.735569990281819</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>9.510778848652075</v>
+        <v>14.139099945672</v>
       </c>
       <c r="P16">
-        <v>14.27393502646969</v>
+        <v>4.917740478968768</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.23953329868316</v>
+      </c>
+      <c r="R16">
+        <v>13.77751713101655</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.97234566325107</v>
+        <v>15.12226536177485</v>
       </c>
       <c r="C17">
-        <v>10.75177483508568</v>
+        <v>11.28639247181268</v>
       </c>
       <c r="D17">
-        <v>5.963141524595885</v>
+        <v>5.992521967865194</v>
       </c>
       <c r="E17">
-        <v>6.207427257187896</v>
+        <v>6.311976913611063</v>
       </c>
       <c r="F17">
-        <v>28.90057995770423</v>
+        <v>26.74817698377276</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6.293624494218032</v>
+        <v>6.215745936929678</v>
       </c>
       <c r="I17">
-        <v>3.634459508953051</v>
+        <v>3.439635497451393</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326998</v>
       </c>
       <c r="K17">
-        <v>20.65968028266583</v>
+        <v>18.88517418755773</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>14.42688685914802</v>
       </c>
       <c r="M17">
-        <v>14.10280466356361</v>
+        <v>13.55734347593521</v>
       </c>
       <c r="N17">
-        <v>4.873179974258536</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>9.687030089000622</v>
+        <v>13.91712905786599</v>
       </c>
       <c r="P17">
-        <v>14.44313252919174</v>
+        <v>5.066265357669626</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>9.412123609504103</v>
+      </c>
+      <c r="R17">
+        <v>13.91651974274855</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.1506829181722</v>
+        <v>15.24949162813204</v>
       </c>
       <c r="C18">
-        <v>10.43380428110603</v>
+        <v>11.00061358868593</v>
       </c>
       <c r="D18">
-        <v>5.876749150133062</v>
+        <v>5.880714527865031</v>
       </c>
       <c r="E18">
-        <v>5.920021378313576</v>
+        <v>5.995514178105187</v>
       </c>
       <c r="F18">
-        <v>29.88260473348885</v>
+        <v>27.60194200133631</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>5.165284038387594</v>
+        <v>5.069747221724874</v>
       </c>
       <c r="I18">
-        <v>3.644436932964039</v>
+        <v>3.447714208251037</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>21.41618889789901</v>
+        <v>19.5169565275089</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>14.92808407692335</v>
       </c>
       <c r="M18">
-        <v>14.08946746101716</v>
+        <v>14.00941764527925</v>
       </c>
       <c r="N18">
-        <v>5.227002472030922</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>10.16396546337543</v>
+        <v>13.88734351521326</v>
       </c>
       <c r="P18">
-        <v>14.69797883921696</v>
+        <v>5.431984856819099</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>9.872621058870941</v>
+      </c>
+      <c r="R18">
+        <v>14.10208964659146</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.52827459250234</v>
+        <v>15.55111513679432</v>
       </c>
       <c r="C19">
-        <v>10.17815057258212</v>
+        <v>10.79799686705761</v>
       </c>
       <c r="D19">
-        <v>5.803476956800995</v>
+        <v>5.776837261404999</v>
       </c>
       <c r="E19">
-        <v>5.865776009642391</v>
+        <v>5.890885610521761</v>
       </c>
       <c r="F19">
-        <v>31.23929316089652</v>
+        <v>28.76204684901234</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.893816642455852</v>
+        <v>3.772684713410976</v>
       </c>
       <c r="I19">
-        <v>3.618584195430626</v>
+        <v>3.428056802870532</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033017</v>
       </c>
       <c r="K19">
-        <v>22.40509080573468</v>
+        <v>20.32185888513036</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>15.54900422856466</v>
       </c>
       <c r="M19">
-        <v>14.23387872350249</v>
+        <v>14.61010559226035</v>
       </c>
       <c r="N19">
-        <v>5.815600550582787</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>10.83758186981628</v>
+        <v>14.00498814496737</v>
       </c>
       <c r="P19">
-        <v>15.01323993891656</v>
+        <v>6.030238538175977</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>10.52142840438343</v>
+      </c>
+      <c r="R19">
+        <v>14.32124126478005</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.48543942465439</v>
+        <v>16.36587121689424</v>
       </c>
       <c r="C20">
-        <v>10.07546274996256</v>
+        <v>10.80211127887022</v>
       </c>
       <c r="D20">
-        <v>5.75495887622983</v>
+        <v>5.681765541723889</v>
       </c>
       <c r="E20">
-        <v>6.420355083576894</v>
+        <v>6.351956132561967</v>
       </c>
       <c r="F20">
-        <v>33.68955170888383</v>
+        <v>30.8293347847738</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2.680350523587795</v>
+        <v>2.537242773770272</v>
       </c>
       <c r="I20">
-        <v>3.462137187050012</v>
+        <v>3.294017657712656</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>24.08820786970001</v>
+        <v>21.65412976600258</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>16.51157568214943</v>
       </c>
       <c r="M20">
-        <v>14.8241184213638</v>
+        <v>15.6815449388159</v>
       </c>
       <c r="N20">
-        <v>6.934834302814502</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>12.02776666164277</v>
+        <v>14.54086984416335</v>
       </c>
       <c r="P20">
-        <v>15.50291793919783</v>
+        <v>7.158060500083748</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>11.66366785217281</v>
+      </c>
+      <c r="R20">
+        <v>14.6343228098617</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.53962817673618</v>
+        <v>17.32857052764879</v>
       </c>
       <c r="C21">
-        <v>10.71316616357142</v>
+        <v>11.52457444862986</v>
       </c>
       <c r="D21">
-        <v>5.781225092717711</v>
+        <v>5.730778716294436</v>
       </c>
       <c r="E21">
-        <v>6.72786978174666</v>
+        <v>6.629158462362009</v>
       </c>
       <c r="F21">
-        <v>35.03647567939331</v>
+        <v>31.91388020649251</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2.363063012488358</v>
+        <v>2.246384227397074</v>
       </c>
       <c r="I21">
-        <v>3.19499849738008</v>
+        <v>3.060215300422473</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015645</v>
       </c>
       <c r="K21">
-        <v>24.72631883150958</v>
+        <v>22.0680344159671</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>16.63530436568893</v>
       </c>
       <c r="M21">
-        <v>15.77030666178281</v>
+        <v>16.22355677297529</v>
       </c>
       <c r="N21">
-        <v>7.265592765832269</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>12.61565919209613</v>
+        <v>15.4458211906451</v>
       </c>
       <c r="P21">
-        <v>15.47176231548193</v>
+        <v>7.485560233666622</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>12.21905866384355</v>
+      </c>
+      <c r="R21">
+        <v>14.52098989068016</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.19057103729073</v>
+        <v>17.92523083284996</v>
       </c>
       <c r="C22">
-        <v>11.11677783232614</v>
+        <v>11.97731188214654</v>
       </c>
       <c r="D22">
-        <v>5.798064194524087</v>
+        <v>5.764043569420642</v>
       </c>
       <c r="E22">
-        <v>6.891709765935381</v>
+        <v>6.777249113327279</v>
       </c>
       <c r="F22">
-        <v>35.85334803644979</v>
+        <v>32.57519429838578</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.1720531861405</v>
+        <v>2.0723401986497</v>
       </c>
       <c r="I22">
-        <v>3.016136421803631</v>
+        <v>2.900334116910967</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130157</v>
       </c>
       <c r="K22">
-        <v>25.10503364536041</v>
+        <v>22.31224662700984</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>16.69144035673698</v>
       </c>
       <c r="M22">
-        <v>16.35559728633018</v>
+        <v>16.56708634600958</v>
       </c>
       <c r="N22">
-        <v>7.422702374698402</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>12.94673698503216</v>
+        <v>16.00647273417666</v>
       </c>
       <c r="P22">
-        <v>15.43908977980802</v>
+        <v>7.640407872618455</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>12.53072673615018</v>
+      </c>
+      <c r="R22">
+        <v>14.43895547912166</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.86408137192874</v>
+        <v>17.62653718551679</v>
       </c>
       <c r="C23">
-        <v>10.88802906846614</v>
+        <v>11.7227183193604</v>
       </c>
       <c r="D23">
-        <v>5.788663972150316</v>
+        <v>5.744185320279469</v>
       </c>
       <c r="E23">
-        <v>6.807542543900158</v>
+        <v>6.701093506023838</v>
       </c>
       <c r="F23">
-        <v>35.46443979177531</v>
+        <v>32.26566389277322</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2.272124918016952</v>
+        <v>2.163505293852862</v>
       </c>
       <c r="I23">
-        <v>3.099667638571999</v>
+        <v>2.971699920044772</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839348</v>
       </c>
       <c r="K23">
-        <v>24.94023678416526</v>
+        <v>22.21525506668394</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>16.68649750247958</v>
       </c>
       <c r="M23">
-        <v>16.05194815162689</v>
+        <v>16.40882501733482</v>
       </c>
       <c r="N23">
-        <v>7.337841625846704</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>12.77684564911875</v>
+        <v>15.71548817724152</v>
       </c>
       <c r="P23">
-        <v>15.46927058201879</v>
+        <v>7.556796133251523</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>12.37077854281926</v>
+      </c>
+      <c r="R23">
+        <v>14.49253933931044</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.54580519486286</v>
+        <v>16.41736035417434</v>
       </c>
       <c r="C24">
-        <v>10.0186412849092</v>
+        <v>10.75001214189032</v>
       </c>
       <c r="D24">
-        <v>5.751614763234817</v>
+        <v>5.670759675352167</v>
       </c>
       <c r="E24">
-        <v>6.478104974245951</v>
+        <v>6.403247923258911</v>
       </c>
       <c r="F24">
-        <v>33.89754755490159</v>
+        <v>31.01330217364654</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2.660562689231132</v>
+        <v>2.517758545635818</v>
       </c>
       <c r="I24">
-        <v>3.442593718864666</v>
+        <v>3.271826860584743</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>24.25269029173376</v>
+        <v>21.79440022957493</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>16.62115448505092</v>
       </c>
       <c r="M24">
-        <v>14.84148486783032</v>
+        <v>15.78449314085367</v>
       </c>
       <c r="N24">
-        <v>7.010817223524373</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>12.10481334868672</v>
+        <v>14.55506590584039</v>
       </c>
       <c r="P24">
-        <v>15.56472890297481</v>
+        <v>7.234929902396859</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>11.73771610274971</v>
+      </c>
+      <c r="R24">
+        <v>14.68067327482336</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.01300319257244</v>
+        <v>15.00632569029964</v>
       </c>
       <c r="C25">
-        <v>9.023173357597955</v>
+        <v>9.631993299853544</v>
       </c>
       <c r="D25">
-        <v>5.706670807191228</v>
+        <v>5.587541989722669</v>
       </c>
       <c r="E25">
-        <v>6.109491937729306</v>
+        <v>6.070182876996694</v>
       </c>
       <c r="F25">
-        <v>32.17101474845742</v>
+        <v>29.64282745662664</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>3.095395198177632</v>
+        <v>2.915050878273728</v>
       </c>
       <c r="I25">
-        <v>3.829095178204703</v>
+        <v>3.611882162364636</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>23.50610219653441</v>
+        <v>21.34202360758889</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>16.53520385768527</v>
       </c>
       <c r="M25">
-        <v>13.42733007879509</v>
+        <v>15.15463753353026</v>
       </c>
       <c r="N25">
-        <v>6.642017745651335</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>11.34126584691434</v>
+        <v>13.19758347501158</v>
       </c>
       <c r="P25">
-        <v>15.67207100732523</v>
+        <v>6.873002305184124</v>
       </c>
       <c r="Q25">
+        <v>11.01760338331726</v>
+      </c>
+      <c r="R25">
+        <v>14.88648606791516</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
